--- a/水泥.excel/1104/1104(102.1~105.4)4.xlsx
+++ b/水泥.excel/1104/1104(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1194 +115,84 @@
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>177,648</t>
-  </si>
-  <si>
-    <t>-59,348</t>
-  </si>
-  <si>
-    <t>21,040</t>
-  </si>
-  <si>
-    <t>326,743</t>
-  </si>
-  <si>
-    <t>5,341</t>
-  </si>
-  <si>
-    <t>70,565</t>
-  </si>
-  <si>
-    <t>-55,585</t>
-  </si>
-  <si>
-    <t>50,421</t>
-  </si>
-  <si>
-    <t>123,710</t>
-  </si>
-  <si>
-    <t>27,187</t>
-  </si>
-  <si>
-    <t>-544,547</t>
-  </si>
-  <si>
-    <t>-403,775</t>
-  </si>
-  <si>
-    <t>181,729</t>
-  </si>
-  <si>
-    <t>-112,141</t>
-  </si>
-  <si>
-    <t>-62,226</t>
-  </si>
-  <si>
-    <t>7,094</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>-15,129</t>
-  </si>
-  <si>
-    <t>1,587</t>
-  </si>
-  <si>
-    <t>-4,581</t>
-  </si>
-  <si>
-    <t>-5,921</t>
-  </si>
-  <si>
-    <t>1,110</t>
-  </si>
-  <si>
-    <t>2,523</t>
-  </si>
-  <si>
-    <t>-2,668</t>
-  </si>
-  <si>
-    <t>-10,382</t>
-  </si>
-  <si>
-    <t>-3,592</t>
-  </si>
-  <si>
-    <t>-2,215</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>-6,994</t>
-  </si>
-  <si>
-    <t>-5,215</t>
-  </si>
-  <si>
-    <t>-2,969</t>
-  </si>
-  <si>
-    <t>-4,307</t>
-  </si>
-  <si>
-    <t>-18,735</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>22,364</t>
-  </si>
-  <si>
-    <t>154,890</t>
-  </si>
-  <si>
-    <t>15,283</t>
-  </si>
-  <si>
-    <t>202,419</t>
-  </si>
-  <si>
-    <t>12,547</t>
-  </si>
-  <si>
-    <t>137,998</t>
-  </si>
-  <si>
-    <t>22,050</t>
-  </si>
-  <si>
-    <t>189,463</t>
-  </si>
-  <si>
-    <t>12,857</t>
-  </si>
-  <si>
-    <t>176,063</t>
-  </si>
-  <si>
-    <t>22,542</t>
-  </si>
-  <si>
-    <t>219,875</t>
-  </si>
-  <si>
-    <t>12,751</t>
-  </si>
-  <si>
-    <t>188,739</t>
-  </si>
-  <si>
-    <t>22,019</t>
-  </si>
-  <si>
-    <t>230,311</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>295,534</t>
-  </si>
-  <si>
-    <t>-17,539</t>
-  </si>
-  <si>
-    <t>-57,688</t>
-  </si>
-  <si>
-    <t>628,425</t>
-  </si>
-  <si>
-    <t>130,677</t>
-  </si>
-  <si>
-    <t>-50,036</t>
-  </si>
-  <si>
-    <t>61,703</t>
-  </si>
-  <si>
-    <t>424,424</t>
-  </si>
-  <si>
-    <t>45,966</t>
-  </si>
-  <si>
-    <t>-69,846</t>
-  </si>
-  <si>
-    <t>-93,778</t>
-  </si>
-  <si>
-    <t>-589,701</t>
-  </si>
-  <si>
-    <t>20,078</t>
-  </si>
-  <si>
-    <t>-62,485</t>
-  </si>
-  <si>
-    <t>-311,676</t>
-  </si>
-  <si>
-    <t>-657,488</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>2,282</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>-122</t>
-  </si>
-  <si>
-    <t>1,500</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>-171</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>-49</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>-127</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>2,818</t>
-  </si>
-  <si>
-    <t>18,085</t>
-  </si>
-  <si>
-    <t>-872</t>
-  </si>
-  <si>
-    <t>29,514</t>
-  </si>
-  <si>
-    <t>11,138</t>
-  </si>
-  <si>
-    <t>47,677</t>
-  </si>
-  <si>
-    <t>11,733</t>
-  </si>
-  <si>
-    <t>83,580</t>
-  </si>
-  <si>
-    <t>7,897</t>
-  </si>
-  <si>
-    <t>51,940</t>
-  </si>
-  <si>
-    <t>13,469</t>
-  </si>
-  <si>
-    <t>88,490</t>
-  </si>
-  <si>
-    <t>-104</t>
-  </si>
-  <si>
-    <t>56,093</t>
-  </si>
-  <si>
-    <t>20,667</t>
-  </si>
-  <si>
-    <t>94,984</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資之其他綜合損益之份額合計</t>
   </si>
   <si>
-    <t>116,017</t>
-  </si>
-  <si>
-    <t>37,490</t>
-  </si>
-  <si>
-    <t>-73,354</t>
-  </si>
-  <si>
-    <t>278,534</t>
-  </si>
-  <si>
-    <t>125,322</t>
-  </si>
-  <si>
-    <t>-120,490</t>
-  </si>
-  <si>
-    <t>117,169</t>
-  </si>
-  <si>
-    <t>380,732</t>
-  </si>
-  <si>
-    <t>-7,287</t>
-  </si>
-  <si>
-    <t>3,252</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>149,956</t>
-  </si>
-  <si>
-    <t>187,316</t>
-  </si>
-  <si>
-    <t>206,073</t>
-  </si>
-  <si>
-    <t>843,929</t>
-  </si>
-  <si>
-    <t>193,276</t>
-  </si>
-  <si>
-    <t>313,150</t>
-  </si>
-  <si>
-    <t>310,534</t>
-  </si>
-  <si>
-    <t>1,120,584</t>
-  </si>
-  <si>
-    <t>239,156</t>
-  </si>
-  <si>
-    <t>207,227</t>
-  </si>
-  <si>
-    <t>244,005</t>
-  </si>
-  <si>
-    <t>1,100,028</t>
-  </si>
-  <si>
-    <t>307,871</t>
-  </si>
-  <si>
-    <t>305,156</t>
-  </si>
-  <si>
-    <t>289,097</t>
-  </si>
-  <si>
-    <t>1,317,217</t>
-  </si>
-  <si>
     <t>採用權益法認列關聯企業及合資之其他綜合損益之份額-可能重分類至損益之項目</t>
   </si>
   <si>
-    <t>-77,704</t>
-  </si>
-  <si>
-    <t>-96,984</t>
-  </si>
-  <si>
-    <t>450,543</t>
-  </si>
-  <si>
-    <t>-177,407</t>
-  </si>
-  <si>
-    <t>-161,651</t>
-  </si>
-  <si>
-    <t>49,656</t>
-  </si>
-  <si>
-    <t>-249,450</t>
-  </si>
-  <si>
-    <t>-671,951</t>
-  </si>
-  <si>
     <t>推銷費用</t>
   </si>
   <si>
-    <t>26,956</t>
-  </si>
-  <si>
-    <t>29,148</t>
-  </si>
-  <si>
-    <t>27,423</t>
-  </si>
-  <si>
-    <t>79,853</t>
-  </si>
-  <si>
-    <t>25,477</t>
-  </si>
-  <si>
-    <t>26,057</t>
-  </si>
-  <si>
-    <t>20,606</t>
-  </si>
-  <si>
-    <t>95,565</t>
-  </si>
-  <si>
-    <t>20,341</t>
-  </si>
-  <si>
-    <t>25,061</t>
-  </si>
-  <si>
-    <t>24,497</t>
-  </si>
-  <si>
-    <t>100,022</t>
-  </si>
-  <si>
-    <t>21,561</t>
-  </si>
-  <si>
-    <t>32,267</t>
-  </si>
-  <si>
-    <t>23,694</t>
-  </si>
-  <si>
-    <t>98,085</t>
-  </si>
-  <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>183,441</t>
-  </si>
-  <si>
-    <t>337,024</t>
-  </si>
-  <si>
-    <t>238,532</t>
-  </si>
-  <si>
-    <t>1,118,979</t>
-  </si>
-  <si>
-    <t>240,829</t>
-  </si>
-  <si>
-    <t>445,035</t>
-  </si>
-  <si>
-    <t>357,824</t>
-  </si>
-  <si>
-    <t>1,384,455</t>
-  </si>
-  <si>
-    <t>261,837</t>
-  </si>
-  <si>
-    <t>349,832</t>
-  </si>
-  <si>
-    <t>298,063</t>
-  </si>
-  <si>
-    <t>1,383,108</t>
-  </si>
-  <si>
-    <t>342,983</t>
-  </si>
-  <si>
-    <t>509,044</t>
-  </si>
-  <si>
-    <t>350,053</t>
-  </si>
-  <si>
-    <t>1,683,538</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>478,975</t>
-  </si>
-  <si>
-    <t>319,485</t>
-  </si>
-  <si>
-    <t>180,844</t>
-  </si>
-  <si>
-    <t>1,747,404</t>
-  </si>
-  <si>
-    <t>371,506</t>
-  </si>
-  <si>
-    <t>394,999</t>
-  </si>
-  <si>
-    <t>419,527</t>
-  </si>
-  <si>
-    <t>1,808,879</t>
-  </si>
-  <si>
-    <t>307,803</t>
-  </si>
-  <si>
-    <t>279,986</t>
-  </si>
-  <si>
-    <t>204,285</t>
-  </si>
-  <si>
-    <t>793,407</t>
-  </si>
-  <si>
-    <t>363,061</t>
-  </si>
-  <si>
-    <t>446,559</t>
-  </si>
-  <si>
-    <t>38,377</t>
-  </si>
-  <si>
-    <t>1,026,050</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>181,173</t>
-  </si>
-  <si>
-    <t>335,438</t>
-  </si>
-  <si>
-    <t>238,239</t>
-  </si>
-  <si>
-    <t>1,113,121</t>
-  </si>
-  <si>
-    <t>239,661</t>
-  </si>
-  <si>
-    <t>447,978</t>
-  </si>
-  <si>
-    <t>358,093</t>
-  </si>
-  <si>
-    <t>1,392,582</t>
-  </si>
-  <si>
-    <t>263,305</t>
-  </si>
-  <si>
-    <t>352,683</t>
-  </si>
-  <si>
-    <t>300,621</t>
-  </si>
-  <si>
-    <t>1,392,731</t>
-  </si>
-  <si>
-    <t>345,289</t>
-  </si>
-  <si>
-    <t>512,351</t>
-  </si>
-  <si>
-    <t>356,022</t>
-  </si>
-  <si>
-    <t>1,701,798</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>476,706</t>
-  </si>
-  <si>
-    <t>317,900</t>
-  </si>
-  <si>
-    <t>180,551</t>
-  </si>
-  <si>
-    <t>1,741,546</t>
-  </si>
-  <si>
-    <t>370,338</t>
-  </si>
-  <si>
-    <t>397,942</t>
-  </si>
-  <si>
-    <t>419,796</t>
-  </si>
-  <si>
-    <t>1,817,255</t>
-  </si>
-  <si>
-    <t>309,271</t>
-  </si>
-  <si>
-    <t>282,837</t>
-  </si>
-  <si>
-    <t>206,843</t>
-  </si>
-  <si>
-    <t>803,364</t>
-  </si>
-  <si>
-    <t>365,367</t>
-  </si>
-  <si>
-    <t>449,866</t>
-  </si>
-  <si>
-    <t>44,346</t>
-  </si>
-  <si>
-    <t>1,044,140</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>30,247</t>
-  </si>
-  <si>
-    <t>13,075</t>
-  </si>
-  <si>
-    <t>22,835</t>
-  </si>
-  <si>
-    <t>114,889</t>
-  </si>
-  <si>
-    <t>47,354</t>
-  </si>
-  <si>
-    <t>41,397</t>
-  </si>
-  <si>
-    <t>42,273</t>
-  </si>
-  <si>
-    <t>178,512</t>
-  </si>
-  <si>
-    <t>24,580</t>
-  </si>
-  <si>
-    <t>24,109</t>
-  </si>
-  <si>
-    <t>47,818</t>
-  </si>
-  <si>
-    <t>173,283</t>
-  </si>
-  <si>
-    <t>31,658</t>
-  </si>
-  <si>
-    <t>78,568</t>
-  </si>
-  <si>
-    <t>68,011</t>
-  </si>
-  <si>
-    <t>266,461</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>156,012</t>
-  </si>
-  <si>
-    <t>342,034</t>
-  </si>
-  <si>
-    <t>214,825</t>
-  </si>
-  <si>
-    <t>1,033,604</t>
-  </si>
-  <si>
-    <t>204,613</t>
-  </si>
-  <si>
-    <t>451,315</t>
-  </si>
-  <si>
-    <t>327,284</t>
-  </si>
-  <si>
-    <t>1,289,523</t>
-  </si>
-  <si>
-    <t>245,154</t>
-  </si>
-  <si>
-    <t>377,663</t>
-  </si>
-  <si>
-    <t>263,714</t>
-  </si>
-  <si>
-    <t>1,298,315</t>
-  </si>
-  <si>
-    <t>311,221</t>
-  </si>
-  <si>
-    <t>486,569</t>
-  </si>
-  <si>
-    <t>302,709</t>
-  </si>
-  <si>
-    <t>1,512,061</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>1,126,012</t>
-  </si>
-  <si>
-    <t>1,100,883</t>
-  </si>
-  <si>
-    <t>1,179,544</t>
-  </si>
-  <si>
-    <t>4,814,387</t>
-  </si>
-  <si>
-    <t>1,243,559</t>
-  </si>
-  <si>
-    <t>1,341,083</t>
-  </si>
-  <si>
-    <t>1,270,242</t>
-  </si>
-  <si>
-    <t>5,275,558</t>
-  </si>
-  <si>
-    <t>1,217,267</t>
-  </si>
-  <si>
-    <t>1,125,238</t>
-  </si>
-  <si>
-    <t>1,069,431</t>
-  </si>
-  <si>
-    <t>4,626,191</t>
-  </si>
-  <si>
-    <t>990,332</t>
-  </si>
-  <si>
-    <t>1,041,364</t>
-  </si>
-  <si>
-    <t>876,602</t>
-  </si>
-  <si>
-    <t>3,979,894</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>1,248,072</t>
-  </si>
-  <si>
-    <t>1,217,277</t>
-  </si>
-  <si>
-    <t>1,295,292</t>
-  </si>
-  <si>
-    <t>5,276,157</t>
-  </si>
-  <si>
-    <t>1,379,161</t>
-  </si>
-  <si>
-    <t>1,456,386</t>
-  </si>
-  <si>
-    <t>1,406,779</t>
-  </si>
-  <si>
-    <t>5,819,904</t>
-  </si>
-  <si>
-    <t>1,327,430</t>
-  </si>
-  <si>
-    <t>1,230,846</t>
-  </si>
-  <si>
-    <t>1,212,503</t>
-  </si>
-  <si>
-    <t>5,163,751</t>
-  </si>
-  <si>
-    <t>1,105,803</t>
-  </si>
-  <si>
-    <t>1,219,662</t>
-  </si>
-  <si>
-    <t>1,037,243</t>
-  </si>
-  <si>
-    <t>4,622,199</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>122,060</t>
-  </si>
-  <si>
-    <t>116,394</t>
-  </si>
-  <si>
-    <t>115,748</t>
-  </si>
-  <si>
-    <t>461,770</t>
-  </si>
-  <si>
-    <t>135,602</t>
-  </si>
-  <si>
-    <t>115,303</t>
-  </si>
-  <si>
-    <t>136,537</t>
-  </si>
-  <si>
-    <t>544,346</t>
-  </si>
-  <si>
-    <t>110,163</t>
-  </si>
-  <si>
-    <t>105,608</t>
-  </si>
-  <si>
-    <t>143,072</t>
-  </si>
-  <si>
-    <t>537,560</t>
-  </si>
-  <si>
-    <t>115,471</t>
-  </si>
-  <si>
-    <t>178,298</t>
-  </si>
-  <si>
-    <t>160,641</t>
-  </si>
-  <si>
-    <t>642,305</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>91,813</t>
-  </si>
-  <si>
-    <t>103,319</t>
-  </si>
-  <si>
-    <t>92,913</t>
-  </si>
-  <si>
-    <t>346,881</t>
-  </si>
-  <si>
-    <t>88,248</t>
-  </si>
-  <si>
-    <t>73,906</t>
-  </si>
-  <si>
-    <t>94,264</t>
-  </si>
-  <si>
-    <t>365,834</t>
-  </si>
-  <si>
-    <t>85,583</t>
-  </si>
-  <si>
-    <t>81,499</t>
-  </si>
-  <si>
-    <t>95,254</t>
-  </si>
-  <si>
-    <t>364,277</t>
-  </si>
-  <si>
-    <t>83,813</t>
-  </si>
-  <si>
-    <t>99,730</t>
-  </si>
-  <si>
-    <t>92,630</t>
-  </si>
-  <si>
-    <t>375,844</t>
-  </si>
-  <si>
     <t>研究發展費用</t>
   </si>
   <si>
-    <t>11,330</t>
-  </si>
-  <si>
-    <t>6,854</t>
-  </si>
-  <si>
-    <t>6,395</t>
-  </si>
-  <si>
-    <t>35,029</t>
-  </si>
-  <si>
-    <t>6,895</t>
-  </si>
-  <si>
-    <t>7,871</t>
-  </si>
-  <si>
-    <t>8,531</t>
-  </si>
-  <si>
-    <t>37,160</t>
-  </si>
-  <si>
-    <t>13,438</t>
-  </si>
-  <si>
-    <t>15,579</t>
-  </si>
-  <si>
-    <t>21,025</t>
-  </si>
-  <si>
-    <t>67,033</t>
-  </si>
-  <si>
-    <t>14,530</t>
-  </si>
-  <si>
-    <t>15,237</t>
-  </si>
-  <si>
-    <t>20,999</t>
-  </si>
-  <si>
-    <t>70,875</t>
-  </si>
-  <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>25,982</t>
-  </si>
-  <si>
-    <t>-7,989</t>
-  </si>
-  <si>
-    <t>-1,579</t>
-  </si>
-  <si>
-    <t>4,933</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
-    <t>2.11</t>
-  </si>
-  <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>186,259</t>
-  </si>
-  <si>
-    <t>355,109</t>
-  </si>
-  <si>
-    <t>237,660</t>
-  </si>
-  <si>
-    <t>1,148,493</t>
-  </si>
-  <si>
-    <t>251,967</t>
-  </si>
-  <si>
-    <t>492,712</t>
-  </si>
-  <si>
-    <t>369,557</t>
-  </si>
-  <si>
-    <t>1,468,035</t>
-  </si>
-  <si>
-    <t>269,734</t>
-  </si>
-  <si>
-    <t>401,772</t>
-  </si>
-  <si>
-    <t>311,532</t>
-  </si>
-  <si>
-    <t>1,471,598</t>
-  </si>
-  <si>
-    <t>342,879</t>
-  </si>
-  <si>
-    <t>565,137</t>
-  </si>
-  <si>
-    <t>370,720</t>
-  </si>
-  <si>
-    <t>1,778,522</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>53,527</t>
-  </si>
-  <si>
-    <t>67,317</t>
-  </si>
-  <si>
-    <t>59,095</t>
-  </si>
-  <si>
-    <t>231,999</t>
-  </si>
-  <si>
-    <t>55,876</t>
-  </si>
-  <si>
-    <t>39,978</t>
-  </si>
-  <si>
-    <t>65,127</t>
-  </si>
-  <si>
-    <t>233,109</t>
-  </si>
-  <si>
-    <t>51,804</t>
-  </si>
-  <si>
-    <t>40,859</t>
-  </si>
-  <si>
-    <t>49,732</t>
-  </si>
-  <si>
-    <t>197,222</t>
-  </si>
-  <si>
-    <t>47,722</t>
-  </si>
-  <si>
-    <t>52,226</t>
-  </si>
-  <si>
-    <t>47,937</t>
-  </si>
-  <si>
-    <t>206,884</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
@@ -1312,157 +202,19 @@
     <t>與不重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-474</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
     <t>與其他綜合損益組成部分相關之所得稅</t>
   </si>
   <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>-4,270</t>
-  </si>
-  <si>
-    <t>5,252</t>
-  </si>
-  <si>
-    <t>4,334</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>與可能重分類之項目相關之所得稅</t>
   </si>
   <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>1,179</t>
-  </si>
-  <si>
-    <t>1,759</t>
-  </si>
-  <si>
-    <t>1,950</t>
-  </si>
-  <si>
-    <t>6,823</t>
-  </si>
-  <si>
-    <t>2,320</t>
-  </si>
-  <si>
-    <t>2,356</t>
-  </si>
-  <si>
-    <t>2,632</t>
-  </si>
-  <si>
-    <t>10,142</t>
-  </si>
-  <si>
-    <t>3,267</t>
-  </si>
-  <si>
-    <t>3,412</t>
-  </si>
-  <si>
-    <t>3,779</t>
-  </si>
-  <si>
-    <t>14,594</t>
-  </si>
-  <si>
-    <t>4,186</t>
-  </si>
-  <si>
-    <t>4,357</t>
-  </si>
-  <si>
-    <t>4,100</t>
-  </si>
-  <si>
-    <t>16,732</t>
-  </si>
-  <si>
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>2,268</t>
-  </si>
-  <si>
-    <t>1,586</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>5,858</t>
-  </si>
-  <si>
-    <t>1,168</t>
-  </si>
-  <si>
-    <t>-2,943</t>
-  </si>
-  <si>
-    <t>-269</t>
-  </si>
-  <si>
-    <t>-8,127</t>
-  </si>
-  <si>
-    <t>-1,468</t>
-  </si>
-  <si>
-    <t>-2,851</t>
-  </si>
-  <si>
-    <t>-2,558</t>
-  </si>
-  <si>
-    <t>-9,623</t>
-  </si>
-  <si>
-    <t>-2,306</t>
-  </si>
-  <si>
-    <t>-3,307</t>
-  </si>
-  <si>
-    <t>-5,969</t>
-  </si>
-  <si>
-    <t>-18,260</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>2,269</t>
-  </si>
-  <si>
-    <t>1,585</t>
-  </si>
-  <si>
-    <t>-8,376</t>
-  </si>
-  <si>
-    <t>-9,957</t>
-  </si>
-  <si>
-    <t>-18,090</t>
   </si>
 </sst>
 </file>
@@ -1921,98 +673,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>177648</v>
       </c>
       <c r="C2" t="n">
         <v>14.23</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>-59348</v>
       </c>
       <c r="E2" t="n">
         <v>-4.88</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>21040</v>
       </c>
       <c r="G2" t="n">
         <v>1.62</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>326743</v>
       </c>
       <c r="I2" t="n">
         <v>6.19</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>5341</v>
       </c>
       <c r="K2" t="n">
         <v>0.39</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>70565</v>
       </c>
       <c r="M2" t="n">
         <v>4.85</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>-55585</v>
       </c>
       <c r="O2" t="n">
         <v>-3.95</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>50421</v>
       </c>
       <c r="Q2" t="n">
         <v>0.87</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>123710</v>
       </c>
       <c r="S2" t="n">
         <v>9.32</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>27187</v>
       </c>
       <c r="U2" t="n">
         <v>2.21</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>-544547</v>
       </c>
       <c r="W2" t="n">
         <v>-44.91</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>-403775</v>
       </c>
       <c r="Y2" t="n">
         <v>-7.82</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>181729</v>
       </c>
       <c r="AA2" t="n">
         <v>16.43</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>-112141</v>
       </c>
       <c r="AC2" t="n">
         <v>-9.19</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>-62226</v>
       </c>
       <c r="AE2" t="n">
         <v>-6</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>7094</v>
       </c>
       <c r="AG2" t="n">
         <v>0.15</v>
@@ -2020,100 +772,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-15129</v>
       </c>
       <c r="C3" t="n">
         <v>-1.21</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>1587</v>
       </c>
       <c r="E3" t="n">
         <v>0.13</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>-4581</v>
       </c>
       <c r="G3" t="n">
         <v>-0.35</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>-5921</v>
       </c>
       <c r="I3" t="n">
         <v>-0.11</v>
       </c>
-      <c r="J3" t="s">
-        <v>54</v>
+      <c r="J3" t="n">
+        <v>1110</v>
       </c>
       <c r="K3" t="n">
         <v>0.08</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
+      <c r="L3" t="n">
+        <v>2523</v>
       </c>
       <c r="M3" t="n">
         <v>0.17</v>
       </c>
-      <c r="N3" t="s">
-        <v>56</v>
+      <c r="N3" t="n">
+        <v>-2668</v>
       </c>
       <c r="O3" t="n">
         <v>-0.19</v>
       </c>
-      <c r="P3" t="s">
-        <v>57</v>
+      <c r="P3" t="n">
+        <v>-10382</v>
       </c>
       <c r="Q3" t="n">
         <v>-0.18</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
+      <c r="R3" t="n">
+        <v>-3592</v>
       </c>
       <c r="S3" t="n">
         <v>-0.27</v>
       </c>
-      <c r="T3" t="s">
-        <v>59</v>
+      <c r="T3" t="n">
+        <v>-2215</v>
       </c>
       <c r="U3" t="n">
         <v>-0.18</v>
       </c>
-      <c r="V3" t="s">
-        <v>60</v>
+      <c r="V3" t="n">
+        <v>946</v>
       </c>
       <c r="W3" t="n">
         <v>0.08</v>
       </c>
-      <c r="X3" t="s">
-        <v>61</v>
+      <c r="X3" t="n">
+        <v>-6994</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.14</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
+      <c r="Z3" t="n">
+        <v>-5215</v>
       </c>
       <c r="AA3" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
+      <c r="AB3" t="n">
+        <v>-2969</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.24</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+      <c r="AD3" t="n">
+        <v>-4307</v>
       </c>
       <c r="AE3" t="n">
         <v>-0.42</v>
       </c>
-      <c r="AF3" t="s">
-        <v>65</v>
+      <c r="AF3" t="n">
+        <v>-18735</v>
       </c>
       <c r="AG3" t="n">
         <v>-0.41</v>
@@ -2121,100 +873,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22364</v>
       </c>
       <c r="C4" t="n">
         <v>1.79</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="D4" t="n">
+        <v>154890</v>
       </c>
       <c r="E4" t="n">
         <v>12.72</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
+      <c r="F4" t="n">
+        <v>15283</v>
       </c>
       <c r="G4" t="n">
         <v>1.18</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
+      <c r="H4" t="n">
+        <v>202419</v>
       </c>
       <c r="I4" t="n">
         <v>3.84</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
+      <c r="J4" t="n">
+        <v>12547</v>
       </c>
       <c r="K4" t="n">
         <v>0.91</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
+      <c r="L4" t="n">
+        <v>137998</v>
       </c>
       <c r="M4" t="n">
         <v>9.48</v>
       </c>
-      <c r="N4" t="s">
-        <v>73</v>
+      <c r="N4" t="n">
+        <v>22050</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="s">
-        <v>74</v>
+      <c r="P4" t="n">
+        <v>189463</v>
       </c>
       <c r="Q4" t="n">
         <v>3.26</v>
       </c>
-      <c r="R4" t="s">
-        <v>75</v>
+      <c r="R4" t="n">
+        <v>12857</v>
       </c>
       <c r="S4" t="n">
         <v>0.97</v>
       </c>
-      <c r="T4" t="s">
-        <v>76</v>
+      <c r="T4" t="n">
+        <v>176063</v>
       </c>
       <c r="U4" t="n">
         <v>14.3</v>
       </c>
-      <c r="V4" t="s">
-        <v>77</v>
+      <c r="V4" t="n">
+        <v>22542</v>
       </c>
       <c r="W4" t="n">
         <v>1.86</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
+      <c r="X4" t="n">
+        <v>219875</v>
       </c>
       <c r="Y4" t="n">
         <v>4.26</v>
       </c>
-      <c r="Z4" t="s">
-        <v>79</v>
+      <c r="Z4" t="n">
+        <v>12751</v>
       </c>
       <c r="AA4" t="n">
         <v>1.15</v>
       </c>
-      <c r="AB4" t="s">
-        <v>80</v>
+      <c r="AB4" t="n">
+        <v>188739</v>
       </c>
       <c r="AC4" t="n">
         <v>15.47</v>
       </c>
-      <c r="AD4" t="s">
-        <v>81</v>
+      <c r="AD4" t="n">
+        <v>22019</v>
       </c>
       <c r="AE4" t="n">
         <v>2.12</v>
       </c>
-      <c r="AF4" t="s">
-        <v>82</v>
+      <c r="AF4" t="n">
+        <v>230311</v>
       </c>
       <c r="AG4" t="n">
         <v>4.98</v>
@@ -2222,100 +974,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>295534</v>
       </c>
       <c r="C5" t="n">
         <v>23.68</v>
       </c>
-      <c r="D5" t="s">
-        <v>85</v>
+      <c r="D5" t="n">
+        <v>-17539</v>
       </c>
       <c r="E5" t="n">
         <v>-1.44</v>
       </c>
-      <c r="F5" t="s">
-        <v>86</v>
+      <c r="F5" t="n">
+        <v>-57688</v>
       </c>
       <c r="G5" t="n">
         <v>-4.45</v>
       </c>
-      <c r="H5" t="s">
-        <v>87</v>
+      <c r="H5" t="n">
+        <v>628425</v>
       </c>
       <c r="I5" t="n">
         <v>11.91</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
+      <c r="J5" t="n">
+        <v>130677</v>
       </c>
       <c r="K5" t="n">
         <v>9.48</v>
       </c>
-      <c r="L5" t="s">
-        <v>89</v>
+      <c r="L5" t="n">
+        <v>-50036</v>
       </c>
       <c r="M5" t="n">
         <v>-3.44</v>
       </c>
-      <c r="N5" t="s">
-        <v>90</v>
+      <c r="N5" t="n">
+        <v>61703</v>
       </c>
       <c r="O5" t="n">
         <v>4.39</v>
       </c>
-      <c r="P5" t="s">
-        <v>91</v>
+      <c r="P5" t="n">
+        <v>424424</v>
       </c>
       <c r="Q5" t="n">
         <v>7.29</v>
       </c>
-      <c r="R5" t="s">
-        <v>92</v>
+      <c r="R5" t="n">
+        <v>45966</v>
       </c>
       <c r="S5" t="n">
         <v>3.46</v>
       </c>
-      <c r="T5" t="s">
-        <v>93</v>
+      <c r="T5" t="n">
+        <v>-69846</v>
       </c>
       <c r="U5" t="n">
         <v>-5.67</v>
       </c>
-      <c r="V5" t="s">
-        <v>94</v>
+      <c r="V5" t="n">
+        <v>-93778</v>
       </c>
       <c r="W5" t="n">
         <v>-7.73</v>
       </c>
-      <c r="X5" t="s">
-        <v>95</v>
+      <c r="X5" t="n">
+        <v>-589701</v>
       </c>
       <c r="Y5" t="n">
         <v>-11.42</v>
       </c>
-      <c r="Z5" t="s">
-        <v>96</v>
+      <c r="Z5" t="n">
+        <v>20078</v>
       </c>
       <c r="AA5" t="n">
         <v>1.82</v>
       </c>
-      <c r="AB5" t="s">
-        <v>97</v>
+      <c r="AB5" t="n">
+        <v>-62485</v>
       </c>
       <c r="AC5" t="n">
         <v>-5.12</v>
       </c>
-      <c r="AD5" t="s">
-        <v>98</v>
+      <c r="AD5" t="n">
+        <v>-311676</v>
       </c>
       <c r="AE5" t="n">
         <v>-30.05</v>
       </c>
-      <c r="AF5" t="s">
-        <v>99</v>
+      <c r="AF5" t="n">
+        <v>-657488</v>
       </c>
       <c r="AG5" t="n">
         <v>-14.22</v>
@@ -2323,100 +1075,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2282</v>
       </c>
       <c r="C6" t="n">
         <v>0.18</v>
       </c>
-      <c r="D6" t="s">
-        <v>102</v>
+      <c r="D6" t="n">
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>103</v>
+      <c r="F6" t="n">
+        <v>-122</v>
       </c>
       <c r="G6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
+      <c r="H6" t="n">
+        <v>1500</v>
       </c>
       <c r="I6" t="n">
         <v>0.03</v>
       </c>
-      <c r="J6" t="s">
-        <v>105</v>
+      <c r="J6" t="n">
+        <v>188</v>
       </c>
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
-      <c r="L6" t="s">
-        <v>106</v>
+      <c r="L6" t="n">
+        <v>-171</v>
       </c>
       <c r="M6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="N6" t="s">
-        <v>107</v>
+      <c r="N6" t="n">
+        <v>157</v>
       </c>
       <c r="O6" t="n">
         <v>0.01</v>
       </c>
-      <c r="P6" t="s">
-        <v>108</v>
+      <c r="P6" t="n">
+        <v>388</v>
       </c>
       <c r="Q6" t="n">
         <v>0.01</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
+      <c r="R6" t="n">
+        <v>-40</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
-      <c r="T6" t="s">
-        <v>110</v>
+      <c r="T6" t="n">
+        <v>-49</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="s">
-        <v>111</v>
+      <c r="V6" t="n">
+        <v>226</v>
       </c>
       <c r="W6" t="n">
         <v>0.02</v>
       </c>
-      <c r="X6" t="s">
-        <v>112</v>
+      <c r="X6" t="n">
+        <v>-127</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
-      <c r="Z6" t="s">
-        <v>113</v>
+      <c r="Z6" t="n">
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" t="s">
-        <v>113</v>
+      <c r="AB6" t="n">
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" t="s">
-        <v>113</v>
+      <c r="AD6" t="n">
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
-      <c r="AF6" t="s">
-        <v>113</v>
+      <c r="AF6" t="n">
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -2424,169 +1176,169 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3</v>
       </c>
       <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>116</v>
+      <c r="D7" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7" t="s"/>
-      <c r="F7" t="s">
-        <v>117</v>
+      <c r="F7" t="n">
+        <v>0.39</v>
       </c>
       <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>118</v>
+      <c r="H7" t="n">
+        <v>1.84</v>
       </c>
       <c r="I7" t="s"/>
-      <c r="J7" t="s">
-        <v>119</v>
+      <c r="J7" t="n">
+        <v>0.4</v>
       </c>
       <c r="K7" t="s"/>
-      <c r="L7" t="s">
-        <v>120</v>
+      <c r="L7" t="n">
+        <v>0.73</v>
       </c>
       <c r="M7" t="s"/>
-      <c r="N7" t="s">
-        <v>121</v>
+      <c r="N7" t="n">
+        <v>0.58</v>
       </c>
       <c r="O7" t="s"/>
-      <c r="P7" t="s">
-        <v>122</v>
+      <c r="P7" t="n">
+        <v>2.26</v>
       </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s">
-        <v>123</v>
+      <c r="R7" t="n">
+        <v>0.43</v>
       </c>
       <c r="S7" t="s"/>
-      <c r="T7" t="s">
-        <v>116</v>
+      <c r="T7" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="U7" t="s"/>
-      <c r="V7" t="s">
-        <v>124</v>
+      <c r="V7" t="n">
+        <v>0.48</v>
       </c>
       <c r="W7" t="s"/>
-      <c r="X7" t="s">
-        <v>125</v>
+      <c r="X7" t="n">
+        <v>2.22</v>
       </c>
       <c r="Y7" t="s"/>
-      <c r="Z7" t="s">
-        <v>126</v>
+      <c r="Z7" t="n">
+        <v>0.55</v>
       </c>
       <c r="AA7" t="s"/>
-      <c r="AB7" t="s">
-        <v>127</v>
+      <c r="AB7" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC7" t="s"/>
-      <c r="AD7" t="s">
-        <v>116</v>
+      <c r="AD7" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE7" t="s"/>
-      <c r="AF7" t="s">
-        <v>128</v>
+      <c r="AF7" t="n">
+        <v>2.68</v>
       </c>
       <c r="AG7" t="s"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>130</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2818</v>
       </c>
       <c r="C8" t="n">
         <v>0.23</v>
       </c>
-      <c r="D8" t="s">
-        <v>131</v>
+      <c r="D8" t="n">
+        <v>18085</v>
       </c>
       <c r="E8" t="n">
         <v>1.49</v>
       </c>
-      <c r="F8" t="s">
-        <v>132</v>
+      <c r="F8" t="n">
+        <v>-872</v>
       </c>
       <c r="G8" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="H8" t="s">
-        <v>133</v>
+      <c r="H8" t="n">
+        <v>29514</v>
       </c>
       <c r="I8" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J8" t="s">
-        <v>134</v>
+      <c r="J8" t="n">
+        <v>11138</v>
       </c>
       <c r="K8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L8" t="s">
-        <v>135</v>
+      <c r="L8" t="n">
+        <v>47677</v>
       </c>
       <c r="M8" t="n">
         <v>3.27</v>
       </c>
-      <c r="N8" t="s">
-        <v>136</v>
+      <c r="N8" t="n">
+        <v>11733</v>
       </c>
       <c r="O8" t="n">
         <v>0.83</v>
       </c>
-      <c r="P8" t="s">
-        <v>137</v>
+      <c r="P8" t="n">
+        <v>83580</v>
       </c>
       <c r="Q8" t="n">
         <v>1.44</v>
       </c>
-      <c r="R8" t="s">
-        <v>138</v>
+      <c r="R8" t="n">
+        <v>7897</v>
       </c>
       <c r="S8" t="n">
         <v>0.59</v>
       </c>
-      <c r="T8" t="s">
-        <v>139</v>
+      <c r="T8" t="n">
+        <v>51940</v>
       </c>
       <c r="U8" t="n">
         <v>4.22</v>
       </c>
-      <c r="V8" t="s">
-        <v>140</v>
+      <c r="V8" t="n">
+        <v>13469</v>
       </c>
       <c r="W8" t="n">
         <v>1.11</v>
       </c>
-      <c r="X8" t="s">
-        <v>141</v>
+      <c r="X8" t="n">
+        <v>88490</v>
       </c>
       <c r="Y8" t="n">
         <v>1.71</v>
       </c>
-      <c r="Z8" t="s">
-        <v>142</v>
+      <c r="Z8" t="n">
+        <v>-104</v>
       </c>
       <c r="AA8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AB8" t="s">
-        <v>143</v>
+      <c r="AB8" t="n">
+        <v>56093</v>
       </c>
       <c r="AC8" t="n">
         <v>4.6</v>
       </c>
-      <c r="AD8" t="s">
-        <v>144</v>
+      <c r="AD8" t="n">
+        <v>20667</v>
       </c>
       <c r="AE8" t="n">
         <v>1.99</v>
       </c>
-      <c r="AF8" t="s">
-        <v>145</v>
+      <c r="AF8" t="n">
+        <v>94984</v>
       </c>
       <c r="AG8" t="n">
         <v>2.05</v>
@@ -2594,52 +1346,52 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>116017</v>
       </c>
       <c r="C9" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="D9" t="s">
-        <v>148</v>
+      <c r="D9" t="n">
+        <v>37490</v>
       </c>
       <c r="E9" t="n">
         <v>3.08</v>
       </c>
-      <c r="F9" t="s">
-        <v>149</v>
+      <c r="F9" t="n">
+        <v>-73354</v>
       </c>
       <c r="G9" t="n">
         <v>-5.66</v>
       </c>
-      <c r="H9" t="s">
-        <v>150</v>
+      <c r="H9" t="n">
+        <v>278534</v>
       </c>
       <c r="I9" t="n">
         <v>5.28</v>
       </c>
-      <c r="J9" t="s">
-        <v>151</v>
+      <c r="J9" t="n">
+        <v>125322</v>
       </c>
       <c r="K9" t="n">
         <v>9.09</v>
       </c>
-      <c r="L9" t="s">
-        <v>152</v>
+      <c r="L9" t="n">
+        <v>-120490</v>
       </c>
       <c r="M9" t="n">
         <v>-8.27</v>
       </c>
-      <c r="N9" t="s">
-        <v>153</v>
+      <c r="N9" t="n">
+        <v>117169</v>
       </c>
       <c r="O9" t="n">
         <v>8.33</v>
       </c>
-      <c r="P9" t="s">
-        <v>154</v>
+      <c r="P9" t="n">
+        <v>380732</v>
       </c>
       <c r="Q9" t="n">
         <v>6.54</v>
@@ -2650,8 +1402,8 @@
       <c r="U9" t="s"/>
       <c r="V9" t="s"/>
       <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>155</v>
+      <c r="X9" t="n">
+        <v>-7287</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.14</v>
@@ -2662,8 +1414,8 @@
       <c r="AC9" t="s"/>
       <c r="AD9" t="s"/>
       <c r="AE9" t="s"/>
-      <c r="AF9" t="s">
-        <v>156</v>
+      <c r="AF9" t="n">
+        <v>3252</v>
       </c>
       <c r="AG9" t="n">
         <v>0.07000000000000001</v>
@@ -2671,100 +1423,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>149956</v>
       </c>
       <c r="C10" t="n">
         <v>12.02</v>
       </c>
-      <c r="D10" t="s">
-        <v>159</v>
+      <c r="D10" t="n">
+        <v>187316</v>
       </c>
       <c r="E10" t="n">
         <v>15.39</v>
       </c>
-      <c r="F10" t="s">
-        <v>160</v>
+      <c r="F10" t="n">
+        <v>206073</v>
       </c>
       <c r="G10" t="n">
         <v>15.91</v>
       </c>
-      <c r="H10" t="s">
-        <v>161</v>
+      <c r="H10" t="n">
+        <v>843929</v>
       </c>
       <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
-        <v>162</v>
+      <c r="J10" t="n">
+        <v>193276</v>
       </c>
       <c r="K10" t="n">
         <v>14.01</v>
       </c>
-      <c r="L10" t="s">
-        <v>163</v>
+      <c r="L10" t="n">
+        <v>313150</v>
       </c>
       <c r="M10" t="n">
         <v>21.5</v>
       </c>
-      <c r="N10" t="s">
-        <v>164</v>
+      <c r="N10" t="n">
+        <v>310534</v>
       </c>
       <c r="O10" t="n">
         <v>22.07</v>
       </c>
-      <c r="P10" t="s">
-        <v>165</v>
+      <c r="P10" t="n">
+        <v>1120584</v>
       </c>
       <c r="Q10" t="n">
         <v>19.25</v>
       </c>
-      <c r="R10" t="s">
-        <v>166</v>
+      <c r="R10" t="n">
+        <v>239156</v>
       </c>
       <c r="S10" t="n">
         <v>18.02</v>
       </c>
-      <c r="T10" t="s">
-        <v>167</v>
+      <c r="T10" t="n">
+        <v>207227</v>
       </c>
       <c r="U10" t="n">
         <v>16.84</v>
       </c>
-      <c r="V10" t="s">
-        <v>168</v>
+      <c r="V10" t="n">
+        <v>244005</v>
       </c>
       <c r="W10" t="n">
         <v>20.12</v>
       </c>
-      <c r="X10" t="s">
-        <v>169</v>
+      <c r="X10" t="n">
+        <v>1100028</v>
       </c>
       <c r="Y10" t="n">
         <v>21.3</v>
       </c>
-      <c r="Z10" t="s">
-        <v>170</v>
+      <c r="Z10" t="n">
+        <v>307871</v>
       </c>
       <c r="AA10" t="n">
         <v>27.84</v>
       </c>
-      <c r="AB10" t="s">
-        <v>171</v>
+      <c r="AB10" t="n">
+        <v>305156</v>
       </c>
       <c r="AC10" t="n">
         <v>25.02</v>
       </c>
-      <c r="AD10" t="s">
-        <v>172</v>
+      <c r="AD10" t="n">
+        <v>289097</v>
       </c>
       <c r="AE10" t="n">
         <v>27.87</v>
       </c>
-      <c r="AF10" t="s">
-        <v>173</v>
+      <c r="AF10" t="n">
+        <v>1317217</v>
       </c>
       <c r="AG10" t="n">
         <v>28.5</v>
@@ -2772,7 +1524,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2790,50 +1542,50 @@
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s">
-        <v>175</v>
+      <c r="R11" t="n">
+        <v>-77704</v>
       </c>
       <c r="S11" t="n">
         <v>-5.85</v>
       </c>
-      <c r="T11" t="s">
-        <v>176</v>
+      <c r="T11" t="n">
+        <v>-96984</v>
       </c>
       <c r="U11" t="n">
         <v>-7.88</v>
       </c>
-      <c r="V11" t="s">
-        <v>177</v>
+      <c r="V11" t="n">
+        <v>450543</v>
       </c>
       <c r="W11" t="n">
         <v>37.16</v>
       </c>
-      <c r="X11" t="s">
-        <v>178</v>
+      <c r="X11" t="n">
+        <v>-177407</v>
       </c>
       <c r="Y11" t="n">
         <v>-3.44</v>
       </c>
-      <c r="Z11" t="s">
-        <v>179</v>
+      <c r="Z11" t="n">
+        <v>-161651</v>
       </c>
       <c r="AA11" t="n">
         <v>-14.62</v>
       </c>
-      <c r="AB11" t="s">
-        <v>180</v>
+      <c r="AB11" t="n">
+        <v>49656</v>
       </c>
       <c r="AC11" t="n">
         <v>4.07</v>
       </c>
-      <c r="AD11" t="s">
-        <v>181</v>
+      <c r="AD11" t="n">
+        <v>-249450</v>
       </c>
       <c r="AE11" t="n">
         <v>-24.05</v>
       </c>
-      <c r="AF11" t="s">
-        <v>182</v>
+      <c r="AF11" t="n">
+        <v>-671951</v>
       </c>
       <c r="AG11" t="n">
         <v>-14.54</v>
@@ -2841,100 +1593,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>184</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26956</v>
       </c>
       <c r="C12" t="n">
         <v>2.16</v>
       </c>
-      <c r="D12" t="s">
-        <v>185</v>
+      <c r="D12" t="n">
+        <v>29148</v>
       </c>
       <c r="E12" t="n">
         <v>2.39</v>
       </c>
-      <c r="F12" t="s">
-        <v>186</v>
+      <c r="F12" t="n">
+        <v>27423</v>
       </c>
       <c r="G12" t="n">
         <v>2.12</v>
       </c>
-      <c r="H12" t="s">
-        <v>187</v>
+      <c r="H12" t="n">
+        <v>79853</v>
       </c>
       <c r="I12" t="n">
         <v>1.51</v>
       </c>
-      <c r="J12" t="s">
-        <v>188</v>
+      <c r="J12" t="n">
+        <v>25477</v>
       </c>
       <c r="K12" t="n">
         <v>1.85</v>
       </c>
-      <c r="L12" t="s">
-        <v>189</v>
+      <c r="L12" t="n">
+        <v>26057</v>
       </c>
       <c r="M12" t="n">
         <v>1.79</v>
       </c>
-      <c r="N12" t="s">
-        <v>190</v>
+      <c r="N12" t="n">
+        <v>20606</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
       </c>
-      <c r="P12" t="s">
-        <v>191</v>
+      <c r="P12" t="n">
+        <v>95565</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
       </c>
-      <c r="R12" t="s">
-        <v>192</v>
+      <c r="R12" t="n">
+        <v>20341</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
       </c>
-      <c r="T12" t="s">
-        <v>193</v>
+      <c r="T12" t="n">
+        <v>25061</v>
       </c>
       <c r="U12" t="n">
         <v>2.04</v>
       </c>
-      <c r="V12" t="s">
-        <v>194</v>
+      <c r="V12" t="n">
+        <v>24497</v>
       </c>
       <c r="W12" t="n">
         <v>2.02</v>
       </c>
-      <c r="X12" t="s">
-        <v>195</v>
+      <c r="X12" t="n">
+        <v>100022</v>
       </c>
       <c r="Y12" t="n">
         <v>1.94</v>
       </c>
-      <c r="Z12" t="s">
-        <v>196</v>
+      <c r="Z12" t="n">
+        <v>21561</v>
       </c>
       <c r="AA12" t="n">
         <v>1.95</v>
       </c>
-      <c r="AB12" t="s">
-        <v>197</v>
+      <c r="AB12" t="n">
+        <v>32267</v>
       </c>
       <c r="AC12" t="n">
         <v>2.65</v>
       </c>
-      <c r="AD12" t="s">
-        <v>198</v>
+      <c r="AD12" t="n">
+        <v>23694</v>
       </c>
       <c r="AE12" t="n">
         <v>2.28</v>
       </c>
-      <c r="AF12" t="s">
-        <v>199</v>
+      <c r="AF12" t="n">
+        <v>98085</v>
       </c>
       <c r="AG12" t="n">
         <v>2.12</v>
@@ -2942,100 +1694,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>183441</v>
       </c>
       <c r="C13" t="n">
         <v>14.7</v>
       </c>
-      <c r="D13" t="s">
-        <v>202</v>
+      <c r="D13" t="n">
+        <v>337024</v>
       </c>
       <c r="E13" t="n">
         <v>27.69</v>
       </c>
-      <c r="F13" t="s">
-        <v>203</v>
+      <c r="F13" t="n">
+        <v>238532</v>
       </c>
       <c r="G13" t="n">
         <v>18.42</v>
       </c>
-      <c r="H13" t="s">
-        <v>204</v>
+      <c r="H13" t="n">
+        <v>1118979</v>
       </c>
       <c r="I13" t="n">
         <v>21.21</v>
       </c>
-      <c r="J13" t="s">
-        <v>205</v>
+      <c r="J13" t="n">
+        <v>240829</v>
       </c>
       <c r="K13" t="n">
         <v>17.46</v>
       </c>
-      <c r="L13" t="s">
-        <v>206</v>
+      <c r="L13" t="n">
+        <v>445035</v>
       </c>
       <c r="M13" t="n">
         <v>30.56</v>
       </c>
-      <c r="N13" t="s">
-        <v>207</v>
+      <c r="N13" t="n">
+        <v>357824</v>
       </c>
       <c r="O13" t="n">
         <v>25.44</v>
       </c>
-      <c r="P13" t="s">
-        <v>208</v>
+      <c r="P13" t="n">
+        <v>1384455</v>
       </c>
       <c r="Q13" t="n">
         <v>23.79</v>
       </c>
-      <c r="R13" t="s">
-        <v>209</v>
+      <c r="R13" t="n">
+        <v>261837</v>
       </c>
       <c r="S13" t="n">
         <v>19.73</v>
       </c>
-      <c r="T13" t="s">
-        <v>210</v>
+      <c r="T13" t="n">
+        <v>349832</v>
       </c>
       <c r="U13" t="n">
         <v>28.42</v>
       </c>
-      <c r="V13" t="s">
-        <v>211</v>
+      <c r="V13" t="n">
+        <v>298063</v>
       </c>
       <c r="W13" t="n">
         <v>24.58</v>
       </c>
-      <c r="X13" t="s">
-        <v>212</v>
+      <c r="X13" t="n">
+        <v>1383108</v>
       </c>
       <c r="Y13" t="n">
         <v>26.78</v>
       </c>
-      <c r="Z13" t="s">
-        <v>213</v>
+      <c r="Z13" t="n">
+        <v>342983</v>
       </c>
       <c r="AA13" t="n">
         <v>31.02</v>
       </c>
-      <c r="AB13" t="s">
-        <v>214</v>
+      <c r="AB13" t="n">
+        <v>509044</v>
       </c>
       <c r="AC13" t="n">
         <v>41.74</v>
       </c>
-      <c r="AD13" t="s">
-        <v>215</v>
+      <c r="AD13" t="n">
+        <v>350053</v>
       </c>
       <c r="AE13" t="n">
         <v>33.75</v>
       </c>
-      <c r="AF13" t="s">
-        <v>216</v>
+      <c r="AF13" t="n">
+        <v>1683538</v>
       </c>
       <c r="AG13" t="n">
         <v>36.42</v>
@@ -3043,100 +1795,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" t="s">
-        <v>218</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>478975</v>
       </c>
       <c r="C14" t="n">
         <v>38.38</v>
       </c>
-      <c r="D14" t="s">
-        <v>219</v>
+      <c r="D14" t="n">
+        <v>319485</v>
       </c>
       <c r="E14" t="n">
         <v>26.25</v>
       </c>
-      <c r="F14" t="s">
-        <v>220</v>
+      <c r="F14" t="n">
+        <v>180844</v>
       </c>
       <c r="G14" t="n">
         <v>13.96</v>
       </c>
-      <c r="H14" t="s">
-        <v>221</v>
+      <c r="H14" t="n">
+        <v>1747404</v>
       </c>
       <c r="I14" t="n">
         <v>33.12</v>
       </c>
-      <c r="J14" t="s">
-        <v>222</v>
+      <c r="J14" t="n">
+        <v>371506</v>
       </c>
       <c r="K14" t="n">
         <v>26.94</v>
       </c>
-      <c r="L14" t="s">
-        <v>223</v>
+      <c r="L14" t="n">
+        <v>394999</v>
       </c>
       <c r="M14" t="n">
         <v>27.12</v>
       </c>
-      <c r="N14" t="s">
-        <v>224</v>
+      <c r="N14" t="n">
+        <v>419527</v>
       </c>
       <c r="O14" t="n">
         <v>29.82</v>
       </c>
-      <c r="P14" t="s">
-        <v>225</v>
+      <c r="P14" t="n">
+        <v>1808879</v>
       </c>
       <c r="Q14" t="n">
         <v>31.08</v>
       </c>
-      <c r="R14" t="s">
-        <v>226</v>
+      <c r="R14" t="n">
+        <v>307803</v>
       </c>
       <c r="S14" t="n">
         <v>23.19</v>
       </c>
-      <c r="T14" t="s">
-        <v>227</v>
+      <c r="T14" t="n">
+        <v>279986</v>
       </c>
       <c r="U14" t="n">
         <v>22.75</v>
       </c>
-      <c r="V14" t="s">
-        <v>228</v>
+      <c r="V14" t="n">
+        <v>204285</v>
       </c>
       <c r="W14" t="n">
         <v>16.85</v>
       </c>
-      <c r="X14" t="s">
-        <v>229</v>
+      <c r="X14" t="n">
+        <v>793407</v>
       </c>
       <c r="Y14" t="n">
         <v>15.36</v>
       </c>
-      <c r="Z14" t="s">
-        <v>230</v>
+      <c r="Z14" t="n">
+        <v>363061</v>
       </c>
       <c r="AA14" t="n">
         <v>32.83</v>
       </c>
-      <c r="AB14" t="s">
-        <v>231</v>
+      <c r="AB14" t="n">
+        <v>446559</v>
       </c>
       <c r="AC14" t="n">
         <v>36.61</v>
       </c>
-      <c r="AD14" t="s">
-        <v>232</v>
+      <c r="AD14" t="n">
+        <v>38377</v>
       </c>
       <c r="AE14" t="n">
         <v>3.7</v>
       </c>
-      <c r="AF14" t="s">
-        <v>233</v>
+      <c r="AF14" t="n">
+        <v>1026050</v>
       </c>
       <c r="AG14" t="n">
         <v>22.2</v>
@@ -3144,100 +1896,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" t="s">
-        <v>235</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>181173</v>
       </c>
       <c r="C15" t="n">
         <v>14.52</v>
       </c>
-      <c r="D15" t="s">
-        <v>236</v>
+      <c r="D15" t="n">
+        <v>335438</v>
       </c>
       <c r="E15" t="n">
         <v>27.56</v>
       </c>
-      <c r="F15" t="s">
-        <v>237</v>
+      <c r="F15" t="n">
+        <v>238239</v>
       </c>
       <c r="G15" t="n">
         <v>18.39</v>
       </c>
-      <c r="H15" t="s">
-        <v>238</v>
+      <c r="H15" t="n">
+        <v>1113121</v>
       </c>
       <c r="I15" t="n">
         <v>21.1</v>
       </c>
-      <c r="J15" t="s">
-        <v>239</v>
+      <c r="J15" t="n">
+        <v>239661</v>
       </c>
       <c r="K15" t="n">
         <v>17.38</v>
       </c>
-      <c r="L15" t="s">
-        <v>240</v>
+      <c r="L15" t="n">
+        <v>447978</v>
       </c>
       <c r="M15" t="n">
         <v>30.76</v>
       </c>
-      <c r="N15" t="s">
-        <v>241</v>
+      <c r="N15" t="n">
+        <v>358093</v>
       </c>
       <c r="O15" t="n">
         <v>25.45</v>
       </c>
-      <c r="P15" t="s">
-        <v>242</v>
+      <c r="P15" t="n">
+        <v>1392582</v>
       </c>
       <c r="Q15" t="n">
         <v>23.93</v>
       </c>
-      <c r="R15" t="s">
-        <v>243</v>
+      <c r="R15" t="n">
+        <v>263305</v>
       </c>
       <c r="S15" t="n">
         <v>19.84</v>
       </c>
-      <c r="T15" t="s">
-        <v>244</v>
+      <c r="T15" t="n">
+        <v>352683</v>
       </c>
       <c r="U15" t="n">
         <v>28.65</v>
       </c>
-      <c r="V15" t="s">
-        <v>245</v>
+      <c r="V15" t="n">
+        <v>300621</v>
       </c>
       <c r="W15" t="n">
         <v>24.79</v>
       </c>
-      <c r="X15" t="s">
-        <v>246</v>
+      <c r="X15" t="n">
+        <v>1392731</v>
       </c>
       <c r="Y15" t="n">
         <v>26.97</v>
       </c>
-      <c r="Z15" t="s">
-        <v>247</v>
+      <c r="Z15" t="n">
+        <v>345289</v>
       </c>
       <c r="AA15" t="n">
         <v>31.23</v>
       </c>
-      <c r="AB15" t="s">
-        <v>248</v>
+      <c r="AB15" t="n">
+        <v>512351</v>
       </c>
       <c r="AC15" t="n">
         <v>42.01</v>
       </c>
-      <c r="AD15" t="s">
-        <v>249</v>
+      <c r="AD15" t="n">
+        <v>356022</v>
       </c>
       <c r="AE15" t="n">
         <v>34.32</v>
       </c>
-      <c r="AF15" t="s">
-        <v>250</v>
+      <c r="AF15" t="n">
+        <v>1701798</v>
       </c>
       <c r="AG15" t="n">
         <v>36.82</v>
@@ -3245,100 +1997,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" t="s">
-        <v>252</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>476706</v>
       </c>
       <c r="C16" t="n">
         <v>38.2</v>
       </c>
-      <c r="D16" t="s">
-        <v>253</v>
+      <c r="D16" t="n">
+        <v>317900</v>
       </c>
       <c r="E16" t="n">
         <v>26.12</v>
       </c>
-      <c r="F16" t="s">
-        <v>254</v>
+      <c r="F16" t="n">
+        <v>180551</v>
       </c>
       <c r="G16" t="n">
         <v>13.94</v>
       </c>
-      <c r="H16" t="s">
-        <v>255</v>
+      <c r="H16" t="n">
+        <v>1741546</v>
       </c>
       <c r="I16" t="n">
         <v>33.01</v>
       </c>
-      <c r="J16" t="s">
-        <v>256</v>
+      <c r="J16" t="n">
+        <v>370338</v>
       </c>
       <c r="K16" t="n">
         <v>26.85</v>
       </c>
-      <c r="L16" t="s">
-        <v>257</v>
+      <c r="L16" t="n">
+        <v>397942</v>
       </c>
       <c r="M16" t="n">
         <v>27.32</v>
       </c>
-      <c r="N16" t="s">
-        <v>258</v>
+      <c r="N16" t="n">
+        <v>419796</v>
       </c>
       <c r="O16" t="n">
         <v>29.84</v>
       </c>
-      <c r="P16" t="s">
-        <v>259</v>
+      <c r="P16" t="n">
+        <v>1817255</v>
       </c>
       <c r="Q16" t="n">
         <v>31.22</v>
       </c>
-      <c r="R16" t="s">
-        <v>260</v>
+      <c r="R16" t="n">
+        <v>309271</v>
       </c>
       <c r="S16" t="n">
         <v>23.3</v>
       </c>
-      <c r="T16" t="s">
-        <v>261</v>
+      <c r="T16" t="n">
+        <v>282837</v>
       </c>
       <c r="U16" t="n">
         <v>22.98</v>
       </c>
-      <c r="V16" t="s">
-        <v>262</v>
+      <c r="V16" t="n">
+        <v>206843</v>
       </c>
       <c r="W16" t="n">
         <v>17.06</v>
       </c>
-      <c r="X16" t="s">
-        <v>263</v>
+      <c r="X16" t="n">
+        <v>803364</v>
       </c>
       <c r="Y16" t="n">
         <v>15.56</v>
       </c>
-      <c r="Z16" t="s">
-        <v>264</v>
+      <c r="Z16" t="n">
+        <v>365367</v>
       </c>
       <c r="AA16" t="n">
         <v>33.04</v>
       </c>
-      <c r="AB16" t="s">
-        <v>265</v>
+      <c r="AB16" t="n">
+        <v>449866</v>
       </c>
       <c r="AC16" t="n">
         <v>36.88</v>
       </c>
-      <c r="AD16" t="s">
-        <v>266</v>
+      <c r="AD16" t="n">
+        <v>44346</v>
       </c>
       <c r="AE16" t="n">
         <v>4.28</v>
       </c>
-      <c r="AF16" t="s">
-        <v>267</v>
+      <c r="AF16" t="n">
+        <v>1044140</v>
       </c>
       <c r="AG16" t="n">
         <v>22.59</v>
@@ -3346,100 +2098,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" t="s">
-        <v>269</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30247</v>
       </c>
       <c r="C17" t="n">
         <v>2.42</v>
       </c>
-      <c r="D17" t="s">
-        <v>270</v>
+      <c r="D17" t="n">
+        <v>13075</v>
       </c>
       <c r="E17" t="n">
         <v>1.07</v>
       </c>
-      <c r="F17" t="s">
-        <v>271</v>
+      <c r="F17" t="n">
+        <v>22835</v>
       </c>
       <c r="G17" t="n">
         <v>1.76</v>
       </c>
-      <c r="H17" t="s">
-        <v>272</v>
+      <c r="H17" t="n">
+        <v>114889</v>
       </c>
       <c r="I17" t="n">
         <v>2.18</v>
       </c>
-      <c r="J17" t="s">
-        <v>273</v>
+      <c r="J17" t="n">
+        <v>47354</v>
       </c>
       <c r="K17" t="n">
         <v>3.43</v>
       </c>
-      <c r="L17" t="s">
-        <v>274</v>
+      <c r="L17" t="n">
+        <v>41397</v>
       </c>
       <c r="M17" t="n">
         <v>2.84</v>
       </c>
-      <c r="N17" t="s">
-        <v>275</v>
+      <c r="N17" t="n">
+        <v>42273</v>
       </c>
       <c r="O17" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
-        <v>276</v>
+      <c r="P17" t="n">
+        <v>178512</v>
       </c>
       <c r="Q17" t="n">
         <v>3.07</v>
       </c>
-      <c r="R17" t="s">
-        <v>277</v>
+      <c r="R17" t="n">
+        <v>24580</v>
       </c>
       <c r="S17" t="n">
         <v>1.85</v>
       </c>
-      <c r="T17" t="s">
-        <v>278</v>
+      <c r="T17" t="n">
+        <v>24109</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
       </c>
-      <c r="V17" t="s">
-        <v>279</v>
+      <c r="V17" t="n">
+        <v>47818</v>
       </c>
       <c r="W17" t="n">
         <v>3.94</v>
       </c>
-      <c r="X17" t="s">
-        <v>280</v>
+      <c r="X17" t="n">
+        <v>173283</v>
       </c>
       <c r="Y17" t="n">
         <v>3.36</v>
       </c>
-      <c r="Z17" t="s">
-        <v>281</v>
+      <c r="Z17" t="n">
+        <v>31658</v>
       </c>
       <c r="AA17" t="n">
         <v>2.86</v>
       </c>
-      <c r="AB17" t="s">
-        <v>282</v>
+      <c r="AB17" t="n">
+        <v>78568</v>
       </c>
       <c r="AC17" t="n">
         <v>6.44</v>
       </c>
-      <c r="AD17" t="s">
-        <v>283</v>
+      <c r="AD17" t="n">
+        <v>68011</v>
       </c>
       <c r="AE17" t="n">
         <v>6.56</v>
       </c>
-      <c r="AF17" t="s">
-        <v>284</v>
+      <c r="AF17" t="n">
+        <v>266461</v>
       </c>
       <c r="AG17" t="n">
         <v>5.76</v>
@@ -3447,100 +2199,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" t="s">
-        <v>286</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>156012</v>
       </c>
       <c r="C18" t="n">
         <v>12.5</v>
       </c>
-      <c r="D18" t="s">
-        <v>287</v>
+      <c r="D18" t="n">
+        <v>342034</v>
       </c>
       <c r="E18" t="n">
         <v>28.1</v>
       </c>
-      <c r="F18" t="s">
-        <v>288</v>
+      <c r="F18" t="n">
+        <v>214825</v>
       </c>
       <c r="G18" t="n">
         <v>16.59</v>
       </c>
-      <c r="H18" t="s">
-        <v>289</v>
+      <c r="H18" t="n">
+        <v>1033604</v>
       </c>
       <c r="I18" t="n">
         <v>19.59</v>
       </c>
-      <c r="J18" t="s">
-        <v>290</v>
+      <c r="J18" t="n">
+        <v>204613</v>
       </c>
       <c r="K18" t="n">
         <v>14.84</v>
       </c>
-      <c r="L18" t="s">
-        <v>291</v>
+      <c r="L18" t="n">
+        <v>451315</v>
       </c>
       <c r="M18" t="n">
         <v>30.99</v>
       </c>
-      <c r="N18" t="s">
-        <v>292</v>
+      <c r="N18" t="n">
+        <v>327284</v>
       </c>
       <c r="O18" t="n">
         <v>23.26</v>
       </c>
-      <c r="P18" t="s">
-        <v>293</v>
+      <c r="P18" t="n">
+        <v>1289523</v>
       </c>
       <c r="Q18" t="n">
         <v>22.16</v>
       </c>
-      <c r="R18" t="s">
-        <v>294</v>
+      <c r="R18" t="n">
+        <v>245154</v>
       </c>
       <c r="S18" t="n">
         <v>18.47</v>
       </c>
-      <c r="T18" t="s">
-        <v>295</v>
+      <c r="T18" t="n">
+        <v>377663</v>
       </c>
       <c r="U18" t="n">
         <v>30.68</v>
       </c>
-      <c r="V18" t="s">
-        <v>296</v>
+      <c r="V18" t="n">
+        <v>263714</v>
       </c>
       <c r="W18" t="n">
         <v>21.75</v>
       </c>
-      <c r="X18" t="s">
-        <v>297</v>
+      <c r="X18" t="n">
+        <v>1298315</v>
       </c>
       <c r="Y18" t="n">
         <v>25.14</v>
       </c>
-      <c r="Z18" t="s">
-        <v>298</v>
+      <c r="Z18" t="n">
+        <v>311221</v>
       </c>
       <c r="AA18" t="n">
         <v>28.14</v>
       </c>
-      <c r="AB18" t="s">
-        <v>299</v>
+      <c r="AB18" t="n">
+        <v>486569</v>
       </c>
       <c r="AC18" t="n">
         <v>39.89</v>
       </c>
-      <c r="AD18" t="s">
-        <v>300</v>
+      <c r="AD18" t="n">
+        <v>302709</v>
       </c>
       <c r="AE18" t="n">
         <v>29.18</v>
       </c>
-      <c r="AF18" t="s">
-        <v>301</v>
+      <c r="AF18" t="n">
+        <v>1512061</v>
       </c>
       <c r="AG18" t="n">
         <v>32.71</v>
@@ -3548,100 +2300,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B19" t="s">
-        <v>303</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1126012</v>
       </c>
       <c r="C19" t="n">
         <v>90.22</v>
       </c>
-      <c r="D19" t="s">
-        <v>304</v>
+      <c r="D19" t="n">
+        <v>1100883</v>
       </c>
       <c r="E19" t="n">
         <v>90.44</v>
       </c>
-      <c r="F19" t="s">
-        <v>305</v>
+      <c r="F19" t="n">
+        <v>1179544</v>
       </c>
       <c r="G19" t="n">
         <v>91.06</v>
       </c>
-      <c r="H19" t="s">
-        <v>306</v>
+      <c r="H19" t="n">
+        <v>4814387</v>
       </c>
       <c r="I19" t="n">
         <v>91.25</v>
       </c>
-      <c r="J19" t="s">
-        <v>307</v>
+      <c r="J19" t="n">
+        <v>1243559</v>
       </c>
       <c r="K19" t="n">
         <v>90.17</v>
       </c>
-      <c r="L19" t="s">
-        <v>308</v>
+      <c r="L19" t="n">
+        <v>1341083</v>
       </c>
       <c r="M19" t="n">
         <v>92.08</v>
       </c>
-      <c r="N19" t="s">
-        <v>309</v>
+      <c r="N19" t="n">
+        <v>1270242</v>
       </c>
       <c r="O19" t="n">
         <v>90.29000000000001</v>
       </c>
-      <c r="P19" t="s">
-        <v>310</v>
+      <c r="P19" t="n">
+        <v>5275558</v>
       </c>
       <c r="Q19" t="n">
         <v>90.65000000000001</v>
       </c>
-      <c r="R19" t="s">
-        <v>311</v>
+      <c r="R19" t="n">
+        <v>1217267</v>
       </c>
       <c r="S19" t="n">
         <v>91.7</v>
       </c>
-      <c r="T19" t="s">
-        <v>312</v>
+      <c r="T19" t="n">
+        <v>1125238</v>
       </c>
       <c r="U19" t="n">
         <v>91.42</v>
       </c>
-      <c r="V19" t="s">
-        <v>313</v>
+      <c r="V19" t="n">
+        <v>1069431</v>
       </c>
       <c r="W19" t="n">
         <v>88.2</v>
       </c>
-      <c r="X19" t="s">
-        <v>314</v>
+      <c r="X19" t="n">
+        <v>4626191</v>
       </c>
       <c r="Y19" t="n">
         <v>89.59</v>
       </c>
-      <c r="Z19" t="s">
-        <v>315</v>
+      <c r="Z19" t="n">
+        <v>990332</v>
       </c>
       <c r="AA19" t="n">
         <v>89.56</v>
       </c>
-      <c r="AB19" t="s">
-        <v>316</v>
+      <c r="AB19" t="n">
+        <v>1041364</v>
       </c>
       <c r="AC19" t="n">
         <v>85.38</v>
       </c>
-      <c r="AD19" t="s">
-        <v>317</v>
+      <c r="AD19" t="n">
+        <v>876602</v>
       </c>
       <c r="AE19" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="AF19" t="s">
-        <v>318</v>
+      <c r="AF19" t="n">
+        <v>3979894</v>
       </c>
       <c r="AG19" t="n">
         <v>86.09999999999999</v>
@@ -3649,100 +2401,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B20" t="s">
-        <v>320</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1248072</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
-      <c r="D20" t="s">
-        <v>321</v>
+      <c r="D20" t="n">
+        <v>1217277</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
-        <v>322</v>
+      <c r="F20" t="n">
+        <v>1295292</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
       </c>
-      <c r="H20" t="s">
-        <v>323</v>
+      <c r="H20" t="n">
+        <v>5276157</v>
       </c>
       <c r="I20" t="n">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
-        <v>324</v>
+      <c r="J20" t="n">
+        <v>1379161</v>
       </c>
       <c r="K20" t="n">
         <v>100</v>
       </c>
-      <c r="L20" t="s">
-        <v>325</v>
+      <c r="L20" t="n">
+        <v>1456386</v>
       </c>
       <c r="M20" t="n">
         <v>100</v>
       </c>
-      <c r="N20" t="s">
-        <v>326</v>
+      <c r="N20" t="n">
+        <v>1406779</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
       </c>
-      <c r="P20" t="s">
-        <v>327</v>
+      <c r="P20" t="n">
+        <v>5819904</v>
       </c>
       <c r="Q20" t="n">
         <v>100</v>
       </c>
-      <c r="R20" t="s">
-        <v>328</v>
+      <c r="R20" t="n">
+        <v>1327430</v>
       </c>
       <c r="S20" t="n">
         <v>100</v>
       </c>
-      <c r="T20" t="s">
-        <v>329</v>
+      <c r="T20" t="n">
+        <v>1230846</v>
       </c>
       <c r="U20" t="n">
         <v>100</v>
       </c>
-      <c r="V20" t="s">
-        <v>330</v>
+      <c r="V20" t="n">
+        <v>1212503</v>
       </c>
       <c r="W20" t="n">
         <v>100</v>
       </c>
-      <c r="X20" t="s">
-        <v>331</v>
+      <c r="X20" t="n">
+        <v>5163751</v>
       </c>
       <c r="Y20" t="n">
         <v>100</v>
       </c>
-      <c r="Z20" t="s">
-        <v>332</v>
+      <c r="Z20" t="n">
+        <v>1105803</v>
       </c>
       <c r="AA20" t="n">
         <v>100</v>
       </c>
-      <c r="AB20" t="s">
-        <v>333</v>
+      <c r="AB20" t="n">
+        <v>1219662</v>
       </c>
       <c r="AC20" t="n">
         <v>100</v>
       </c>
-      <c r="AD20" t="s">
-        <v>334</v>
+      <c r="AD20" t="n">
+        <v>1037243</v>
       </c>
       <c r="AE20" t="n">
         <v>100</v>
       </c>
-      <c r="AF20" t="s">
-        <v>335</v>
+      <c r="AF20" t="n">
+        <v>4622199</v>
       </c>
       <c r="AG20" t="n">
         <v>100</v>
@@ -3750,100 +2502,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" t="s">
-        <v>337</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>122060</v>
       </c>
       <c r="C21" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="D21" t="s">
-        <v>338</v>
+      <c r="D21" t="n">
+        <v>116394</v>
       </c>
       <c r="E21" t="n">
         <v>9.56</v>
       </c>
-      <c r="F21" t="s">
-        <v>339</v>
+      <c r="F21" t="n">
+        <v>115748</v>
       </c>
       <c r="G21" t="n">
         <v>8.94</v>
       </c>
-      <c r="H21" t="s">
-        <v>340</v>
+      <c r="H21" t="n">
+        <v>461770</v>
       </c>
       <c r="I21" t="n">
         <v>8.75</v>
       </c>
-      <c r="J21" t="s">
-        <v>341</v>
+      <c r="J21" t="n">
+        <v>135602</v>
       </c>
       <c r="K21" t="n">
         <v>9.83</v>
       </c>
-      <c r="L21" t="s">
-        <v>342</v>
+      <c r="L21" t="n">
+        <v>115303</v>
       </c>
       <c r="M21" t="n">
         <v>7.92</v>
       </c>
-      <c r="N21" t="s">
-        <v>343</v>
+      <c r="N21" t="n">
+        <v>136537</v>
       </c>
       <c r="O21" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="P21" t="s">
-        <v>344</v>
+      <c r="P21" t="n">
+        <v>544346</v>
       </c>
       <c r="Q21" t="n">
         <v>9.35</v>
       </c>
-      <c r="R21" t="s">
-        <v>345</v>
+      <c r="R21" t="n">
+        <v>110163</v>
       </c>
       <c r="S21" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="T21" t="s">
-        <v>346</v>
+      <c r="T21" t="n">
+        <v>105608</v>
       </c>
       <c r="U21" t="n">
         <v>8.58</v>
       </c>
-      <c r="V21" t="s">
-        <v>347</v>
+      <c r="V21" t="n">
+        <v>143072</v>
       </c>
       <c r="W21" t="n">
         <v>11.8</v>
       </c>
-      <c r="X21" t="s">
-        <v>348</v>
+      <c r="X21" t="n">
+        <v>537560</v>
       </c>
       <c r="Y21" t="n">
         <v>10.41</v>
       </c>
-      <c r="Z21" t="s">
-        <v>349</v>
+      <c r="Z21" t="n">
+        <v>115471</v>
       </c>
       <c r="AA21" t="n">
         <v>10.44</v>
       </c>
-      <c r="AB21" t="s">
-        <v>350</v>
+      <c r="AB21" t="n">
+        <v>178298</v>
       </c>
       <c r="AC21" t="n">
         <v>14.62</v>
       </c>
-      <c r="AD21" t="s">
-        <v>351</v>
+      <c r="AD21" t="n">
+        <v>160641</v>
       </c>
       <c r="AE21" t="n">
         <v>15.49</v>
       </c>
-      <c r="AF21" t="s">
-        <v>352</v>
+      <c r="AF21" t="n">
+        <v>642305</v>
       </c>
       <c r="AG21" t="n">
         <v>13.9</v>
@@ -3851,100 +2603,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B22" t="s">
-        <v>337</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>122060</v>
       </c>
       <c r="C22" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="D22" t="s">
-        <v>338</v>
+      <c r="D22" t="n">
+        <v>116394</v>
       </c>
       <c r="E22" t="n">
         <v>9.56</v>
       </c>
-      <c r="F22" t="s">
-        <v>339</v>
+      <c r="F22" t="n">
+        <v>115748</v>
       </c>
       <c r="G22" t="n">
         <v>8.94</v>
       </c>
-      <c r="H22" t="s">
-        <v>340</v>
+      <c r="H22" t="n">
+        <v>461770</v>
       </c>
       <c r="I22" t="n">
         <v>8.75</v>
       </c>
-      <c r="J22" t="s">
-        <v>341</v>
+      <c r="J22" t="n">
+        <v>135602</v>
       </c>
       <c r="K22" t="n">
         <v>9.83</v>
       </c>
-      <c r="L22" t="s">
-        <v>342</v>
+      <c r="L22" t="n">
+        <v>115303</v>
       </c>
       <c r="M22" t="n">
         <v>7.92</v>
       </c>
-      <c r="N22" t="s">
-        <v>343</v>
+      <c r="N22" t="n">
+        <v>136537</v>
       </c>
       <c r="O22" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="P22" t="s">
-        <v>344</v>
+      <c r="P22" t="n">
+        <v>544346</v>
       </c>
       <c r="Q22" t="n">
         <v>9.35</v>
       </c>
-      <c r="R22" t="s">
-        <v>345</v>
+      <c r="R22" t="n">
+        <v>110163</v>
       </c>
       <c r="S22" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="T22" t="s">
-        <v>346</v>
+      <c r="T22" t="n">
+        <v>105608</v>
       </c>
       <c r="U22" t="n">
         <v>8.58</v>
       </c>
-      <c r="V22" t="s">
-        <v>347</v>
+      <c r="V22" t="n">
+        <v>143072</v>
       </c>
       <c r="W22" t="n">
         <v>11.8</v>
       </c>
-      <c r="X22" t="s">
-        <v>348</v>
+      <c r="X22" t="n">
+        <v>537560</v>
       </c>
       <c r="Y22" t="n">
         <v>10.41</v>
       </c>
-      <c r="Z22" t="s">
-        <v>349</v>
+      <c r="Z22" t="n">
+        <v>115471</v>
       </c>
       <c r="AA22" t="n">
         <v>10.44</v>
       </c>
-      <c r="AB22" t="s">
-        <v>350</v>
+      <c r="AB22" t="n">
+        <v>178298</v>
       </c>
       <c r="AC22" t="n">
         <v>14.62</v>
       </c>
-      <c r="AD22" t="s">
-        <v>351</v>
+      <c r="AD22" t="n">
+        <v>160641</v>
       </c>
       <c r="AE22" t="n">
         <v>15.49</v>
       </c>
-      <c r="AF22" t="s">
-        <v>352</v>
+      <c r="AF22" t="n">
+        <v>642305</v>
       </c>
       <c r="AG22" t="n">
         <v>13.9</v>
@@ -3952,100 +2704,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B23" t="s">
-        <v>355</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91813</v>
       </c>
       <c r="C23" t="n">
         <v>7.36</v>
       </c>
-      <c r="D23" t="s">
-        <v>356</v>
+      <c r="D23" t="n">
+        <v>103319</v>
       </c>
       <c r="E23" t="n">
         <v>8.49</v>
       </c>
-      <c r="F23" t="s">
-        <v>357</v>
+      <c r="F23" t="n">
+        <v>92913</v>
       </c>
       <c r="G23" t="n">
         <v>7.17</v>
       </c>
-      <c r="H23" t="s">
-        <v>358</v>
+      <c r="H23" t="n">
+        <v>346881</v>
       </c>
       <c r="I23" t="n">
         <v>6.57</v>
       </c>
-      <c r="J23" t="s">
-        <v>359</v>
+      <c r="J23" t="n">
+        <v>88248</v>
       </c>
       <c r="K23" t="n">
         <v>6.4</v>
       </c>
-      <c r="L23" t="s">
-        <v>360</v>
+      <c r="L23" t="n">
+        <v>73906</v>
       </c>
       <c r="M23" t="n">
         <v>5.07</v>
       </c>
-      <c r="N23" t="s">
-        <v>361</v>
+      <c r="N23" t="n">
+        <v>94264</v>
       </c>
       <c r="O23" t="n">
         <v>6.7</v>
       </c>
-      <c r="P23" t="s">
-        <v>362</v>
+      <c r="P23" t="n">
+        <v>365834</v>
       </c>
       <c r="Q23" t="n">
         <v>6.29</v>
       </c>
-      <c r="R23" t="s">
-        <v>363</v>
+      <c r="R23" t="n">
+        <v>85583</v>
       </c>
       <c r="S23" t="n">
         <v>6.45</v>
       </c>
-      <c r="T23" t="s">
-        <v>364</v>
+      <c r="T23" t="n">
+        <v>81499</v>
       </c>
       <c r="U23" t="n">
         <v>6.62</v>
       </c>
-      <c r="V23" t="s">
-        <v>365</v>
+      <c r="V23" t="n">
+        <v>95254</v>
       </c>
       <c r="W23" t="n">
         <v>7.86</v>
       </c>
-      <c r="X23" t="s">
-        <v>366</v>
+      <c r="X23" t="n">
+        <v>364277</v>
       </c>
       <c r="Y23" t="n">
         <v>7.05</v>
       </c>
-      <c r="Z23" t="s">
-        <v>367</v>
+      <c r="Z23" t="n">
+        <v>83813</v>
       </c>
       <c r="AA23" t="n">
         <v>7.58</v>
       </c>
-      <c r="AB23" t="s">
-        <v>368</v>
+      <c r="AB23" t="n">
+        <v>99730</v>
       </c>
       <c r="AC23" t="n">
         <v>8.18</v>
       </c>
-      <c r="AD23" t="s">
-        <v>369</v>
+      <c r="AD23" t="n">
+        <v>92630</v>
       </c>
       <c r="AE23" t="n">
         <v>8.93</v>
       </c>
-      <c r="AF23" t="s">
-        <v>370</v>
+      <c r="AF23" t="n">
+        <v>375844</v>
       </c>
       <c r="AG23" t="n">
         <v>8.130000000000001</v>
@@ -4053,100 +2805,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B24" t="s">
-        <v>372</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11330</v>
       </c>
       <c r="C24" t="n">
         <v>0.91</v>
       </c>
-      <c r="D24" t="s">
-        <v>373</v>
+      <c r="D24" t="n">
+        <v>6854</v>
       </c>
       <c r="E24" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F24" t="s">
-        <v>374</v>
+      <c r="F24" t="n">
+        <v>6395</v>
       </c>
       <c r="G24" t="n">
         <v>0.49</v>
       </c>
-      <c r="H24" t="s">
-        <v>375</v>
+      <c r="H24" t="n">
+        <v>35029</v>
       </c>
       <c r="I24" t="n">
         <v>0.66</v>
       </c>
-      <c r="J24" t="s">
-        <v>376</v>
+      <c r="J24" t="n">
+        <v>6895</v>
       </c>
       <c r="K24" t="n">
         <v>0.5</v>
       </c>
-      <c r="L24" t="s">
-        <v>377</v>
+      <c r="L24" t="n">
+        <v>7871</v>
       </c>
       <c r="M24" t="n">
         <v>0.54</v>
       </c>
-      <c r="N24" t="s">
-        <v>378</v>
+      <c r="N24" t="n">
+        <v>8531</v>
       </c>
       <c r="O24" t="n">
         <v>0.61</v>
       </c>
-      <c r="P24" t="s">
-        <v>379</v>
+      <c r="P24" t="n">
+        <v>37160</v>
       </c>
       <c r="Q24" t="n">
         <v>0.64</v>
       </c>
-      <c r="R24" t="s">
-        <v>380</v>
+      <c r="R24" t="n">
+        <v>13438</v>
       </c>
       <c r="S24" t="n">
         <v>1.01</v>
       </c>
-      <c r="T24" t="s">
-        <v>381</v>
+      <c r="T24" t="n">
+        <v>15579</v>
       </c>
       <c r="U24" t="n">
         <v>1.27</v>
       </c>
-      <c r="V24" t="s">
-        <v>382</v>
+      <c r="V24" t="n">
+        <v>21025</v>
       </c>
       <c r="W24" t="n">
         <v>1.73</v>
       </c>
-      <c r="X24" t="s">
-        <v>383</v>
+      <c r="X24" t="n">
+        <v>67033</v>
       </c>
       <c r="Y24" t="n">
         <v>1.3</v>
       </c>
-      <c r="Z24" t="s">
-        <v>384</v>
+      <c r="Z24" t="n">
+        <v>14530</v>
       </c>
       <c r="AA24" t="n">
         <v>1.31</v>
       </c>
-      <c r="AB24" t="s">
-        <v>385</v>
+      <c r="AB24" t="n">
+        <v>15237</v>
       </c>
       <c r="AC24" t="n">
         <v>1.25</v>
       </c>
-      <c r="AD24" t="s">
-        <v>386</v>
+      <c r="AD24" t="n">
+        <v>20999</v>
       </c>
       <c r="AE24" t="n">
         <v>2.02</v>
       </c>
-      <c r="AF24" t="s">
-        <v>387</v>
+      <c r="AF24" t="n">
+        <v>70875</v>
       </c>
       <c r="AG24" t="n">
         <v>1.53</v>
@@ -4154,7 +2906,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -4162,8 +2914,8 @@
       <c r="E25" t="s"/>
       <c r="F25" t="s"/>
       <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>389</v>
+      <c r="H25" t="n">
+        <v>25982</v>
       </c>
       <c r="I25" t="n">
         <v>0.49</v>
@@ -4174,8 +2926,8 @@
       <c r="M25" t="s"/>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
-      <c r="P25" t="s">
-        <v>390</v>
+      <c r="P25" t="n">
+        <v>-7989</v>
       </c>
       <c r="Q25" t="n">
         <v>-0.14</v>
@@ -4186,8 +2938,8 @@
       <c r="U25" t="s"/>
       <c r="V25" t="s"/>
       <c r="W25" t="s"/>
-      <c r="X25" t="s">
-        <v>391</v>
+      <c r="X25" t="n">
+        <v>-1579</v>
       </c>
       <c r="Y25" t="n">
         <v>-0.03</v>
@@ -4198,8 +2950,8 @@
       <c r="AC25" t="s"/>
       <c r="AD25" t="s"/>
       <c r="AE25" t="s"/>
-      <c r="AF25" t="s">
-        <v>392</v>
+      <c r="AF25" t="n">
+        <v>4933</v>
       </c>
       <c r="AG25" t="n">
         <v>0.11</v>
@@ -4207,169 +2959,169 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3</v>
       </c>
       <c r="C26" t="s"/>
-      <c r="D26" t="s">
-        <v>126</v>
+      <c r="D26" t="n">
+        <v>0.55</v>
       </c>
       <c r="E26" t="s"/>
-      <c r="F26" t="s">
-        <v>117</v>
+      <c r="F26" t="n">
+        <v>0.39</v>
       </c>
       <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>118</v>
+      <c r="H26" t="n">
+        <v>1.84</v>
       </c>
       <c r="I26" t="s"/>
-      <c r="J26" t="s">
-        <v>119</v>
+      <c r="J26" t="n">
+        <v>0.4</v>
       </c>
       <c r="K26" t="s"/>
-      <c r="L26" t="s">
-        <v>120</v>
+      <c r="L26" t="n">
+        <v>0.73</v>
       </c>
       <c r="M26" t="s"/>
-      <c r="N26" t="s">
-        <v>121</v>
+      <c r="N26" t="n">
+        <v>0.58</v>
       </c>
       <c r="O26" t="s"/>
-      <c r="P26" t="s">
-        <v>122</v>
+      <c r="P26" t="n">
+        <v>2.26</v>
       </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s">
-        <v>123</v>
+      <c r="R26" t="n">
+        <v>0.43</v>
       </c>
       <c r="S26" t="s"/>
-      <c r="T26" t="s">
-        <v>116</v>
+      <c r="T26" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="U26" t="s"/>
-      <c r="V26" t="s">
-        <v>124</v>
+      <c r="V26" t="n">
+        <v>0.48</v>
       </c>
       <c r="W26" t="s"/>
-      <c r="X26" t="s">
-        <v>394</v>
+      <c r="X26" t="n">
+        <v>2.11</v>
       </c>
       <c r="Y26" t="s"/>
-      <c r="Z26" t="s">
-        <v>126</v>
+      <c r="Z26" t="n">
+        <v>0.55</v>
       </c>
       <c r="AA26" t="s"/>
-      <c r="AB26" t="s">
-        <v>127</v>
+      <c r="AB26" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC26" t="s"/>
-      <c r="AD26" t="s">
-        <v>116</v>
+      <c r="AD26" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE26" t="s"/>
-      <c r="AF26" t="s">
-        <v>128</v>
+      <c r="AF26" t="n">
+        <v>2.68</v>
       </c>
       <c r="AG26" t="s"/>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B27" t="s">
-        <v>396</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>186259</v>
       </c>
       <c r="C27" t="n">
         <v>14.92</v>
       </c>
-      <c r="D27" t="s">
-        <v>397</v>
+      <c r="D27" t="n">
+        <v>355109</v>
       </c>
       <c r="E27" t="n">
         <v>29.17</v>
       </c>
-      <c r="F27" t="s">
-        <v>398</v>
+      <c r="F27" t="n">
+        <v>237660</v>
       </c>
       <c r="G27" t="n">
         <v>18.35</v>
       </c>
-      <c r="H27" t="s">
-        <v>399</v>
+      <c r="H27" t="n">
+        <v>1148493</v>
       </c>
       <c r="I27" t="n">
         <v>21.77</v>
       </c>
-      <c r="J27" t="s">
-        <v>400</v>
+      <c r="J27" t="n">
+        <v>251967</v>
       </c>
       <c r="K27" t="n">
         <v>18.27</v>
       </c>
-      <c r="L27" t="s">
-        <v>401</v>
+      <c r="L27" t="n">
+        <v>492712</v>
       </c>
       <c r="M27" t="n">
         <v>33.83</v>
       </c>
-      <c r="N27" t="s">
-        <v>402</v>
+      <c r="N27" t="n">
+        <v>369557</v>
       </c>
       <c r="O27" t="n">
         <v>26.27</v>
       </c>
-      <c r="P27" t="s">
-        <v>403</v>
+      <c r="P27" t="n">
+        <v>1468035</v>
       </c>
       <c r="Q27" t="n">
         <v>25.22</v>
       </c>
-      <c r="R27" t="s">
-        <v>404</v>
+      <c r="R27" t="n">
+        <v>269734</v>
       </c>
       <c r="S27" t="n">
         <v>20.32</v>
       </c>
-      <c r="T27" t="s">
-        <v>405</v>
+      <c r="T27" t="n">
+        <v>401772</v>
       </c>
       <c r="U27" t="n">
         <v>32.64</v>
       </c>
-      <c r="V27" t="s">
-        <v>406</v>
+      <c r="V27" t="n">
+        <v>311532</v>
       </c>
       <c r="W27" t="n">
         <v>25.69</v>
       </c>
-      <c r="X27" t="s">
-        <v>407</v>
+      <c r="X27" t="n">
+        <v>1471598</v>
       </c>
       <c r="Y27" t="n">
         <v>28.5</v>
       </c>
-      <c r="Z27" t="s">
-        <v>408</v>
+      <c r="Z27" t="n">
+        <v>342879</v>
       </c>
       <c r="AA27" t="n">
         <v>31.01</v>
       </c>
-      <c r="AB27" t="s">
-        <v>409</v>
+      <c r="AB27" t="n">
+        <v>565137</v>
       </c>
       <c r="AC27" t="n">
         <v>46.34</v>
       </c>
-      <c r="AD27" t="s">
-        <v>410</v>
+      <c r="AD27" t="n">
+        <v>370720</v>
       </c>
       <c r="AE27" t="n">
         <v>35.74</v>
       </c>
-      <c r="AF27" t="s">
-        <v>411</v>
+      <c r="AF27" t="n">
+        <v>1778522</v>
       </c>
       <c r="AG27" t="n">
         <v>38.48</v>
@@ -4377,100 +3129,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B28" t="s">
-        <v>413</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>53527</v>
       </c>
       <c r="C28" t="n">
         <v>4.29</v>
       </c>
-      <c r="D28" t="s">
-        <v>414</v>
+      <c r="D28" t="n">
+        <v>67317</v>
       </c>
       <c r="E28" t="n">
         <v>5.53</v>
       </c>
-      <c r="F28" t="s">
-        <v>415</v>
+      <c r="F28" t="n">
+        <v>59095</v>
       </c>
       <c r="G28" t="n">
         <v>4.56</v>
       </c>
-      <c r="H28" t="s">
-        <v>416</v>
+      <c r="H28" t="n">
+        <v>231999</v>
       </c>
       <c r="I28" t="n">
         <v>4.4</v>
       </c>
-      <c r="J28" t="s">
-        <v>417</v>
+      <c r="J28" t="n">
+        <v>55876</v>
       </c>
       <c r="K28" t="n">
         <v>4.05</v>
       </c>
-      <c r="L28" t="s">
-        <v>418</v>
+      <c r="L28" t="n">
+        <v>39978</v>
       </c>
       <c r="M28" t="n">
         <v>2.75</v>
       </c>
-      <c r="N28" t="s">
-        <v>419</v>
+      <c r="N28" t="n">
+        <v>65127</v>
       </c>
       <c r="O28" t="n">
         <v>4.63</v>
       </c>
-      <c r="P28" t="s">
-        <v>420</v>
+      <c r="P28" t="n">
+        <v>233109</v>
       </c>
       <c r="Q28" t="n">
         <v>4.01</v>
       </c>
-      <c r="R28" t="s">
-        <v>421</v>
+      <c r="R28" t="n">
+        <v>51804</v>
       </c>
       <c r="S28" t="n">
         <v>3.9</v>
       </c>
-      <c r="T28" t="s">
-        <v>422</v>
+      <c r="T28" t="n">
+        <v>40859</v>
       </c>
       <c r="U28" t="n">
         <v>3.32</v>
       </c>
-      <c r="V28" t="s">
-        <v>423</v>
+      <c r="V28" t="n">
+        <v>49732</v>
       </c>
       <c r="W28" t="n">
         <v>4.1</v>
       </c>
-      <c r="X28" t="s">
-        <v>424</v>
+      <c r="X28" t="n">
+        <v>197222</v>
       </c>
       <c r="Y28" t="n">
         <v>3.82</v>
       </c>
-      <c r="Z28" t="s">
-        <v>425</v>
+      <c r="Z28" t="n">
+        <v>47722</v>
       </c>
       <c r="AA28" t="n">
         <v>4.32</v>
       </c>
-      <c r="AB28" t="s">
-        <v>426</v>
+      <c r="AB28" t="n">
+        <v>52226</v>
       </c>
       <c r="AC28" t="n">
         <v>4.28</v>
       </c>
-      <c r="AD28" t="s">
-        <v>427</v>
+      <c r="AD28" t="n">
+        <v>47937</v>
       </c>
       <c r="AE28" t="n">
         <v>4.62</v>
       </c>
-      <c r="AF28" t="s">
-        <v>428</v>
+      <c r="AF28" t="n">
+        <v>206884</v>
       </c>
       <c r="AG28" t="n">
         <v>4.48</v>
@@ -4478,100 +3230,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B29" t="s">
-        <v>201</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>183441</v>
       </c>
       <c r="C29" t="n">
         <v>14.7</v>
       </c>
-      <c r="D29" t="s">
-        <v>202</v>
+      <c r="D29" t="n">
+        <v>337024</v>
       </c>
       <c r="E29" t="n">
         <v>27.69</v>
       </c>
-      <c r="F29" t="s">
-        <v>203</v>
+      <c r="F29" t="n">
+        <v>238532</v>
       </c>
       <c r="G29" t="n">
         <v>18.42</v>
       </c>
-      <c r="H29" t="s">
-        <v>204</v>
+      <c r="H29" t="n">
+        <v>1118979</v>
       </c>
       <c r="I29" t="n">
         <v>21.21</v>
       </c>
-      <c r="J29" t="s">
-        <v>205</v>
+      <c r="J29" t="n">
+        <v>240829</v>
       </c>
       <c r="K29" t="n">
         <v>17.46</v>
       </c>
-      <c r="L29" t="s">
-        <v>206</v>
+      <c r="L29" t="n">
+        <v>445035</v>
       </c>
       <c r="M29" t="n">
         <v>30.56</v>
       </c>
-      <c r="N29" t="s">
-        <v>207</v>
+      <c r="N29" t="n">
+        <v>357824</v>
       </c>
       <c r="O29" t="n">
         <v>25.44</v>
       </c>
-      <c r="P29" t="s">
-        <v>208</v>
+      <c r="P29" t="n">
+        <v>1384455</v>
       </c>
       <c r="Q29" t="n">
         <v>23.79</v>
       </c>
-      <c r="R29" t="s">
-        <v>209</v>
+      <c r="R29" t="n">
+        <v>261837</v>
       </c>
       <c r="S29" t="n">
         <v>19.73</v>
       </c>
-      <c r="T29" t="s">
-        <v>210</v>
+      <c r="T29" t="n">
+        <v>349832</v>
       </c>
       <c r="U29" t="n">
         <v>28.42</v>
       </c>
-      <c r="V29" t="s">
-        <v>211</v>
+      <c r="V29" t="n">
+        <v>298063</v>
       </c>
       <c r="W29" t="n">
         <v>24.58</v>
       </c>
-      <c r="X29" t="s">
-        <v>212</v>
+      <c r="X29" t="n">
+        <v>1383108</v>
       </c>
       <c r="Y29" t="n">
         <v>26.78</v>
       </c>
-      <c r="Z29" t="s">
-        <v>213</v>
+      <c r="Z29" t="n">
+        <v>342983</v>
       </c>
       <c r="AA29" t="n">
         <v>31.02</v>
       </c>
-      <c r="AB29" t="s">
-        <v>214</v>
+      <c r="AB29" t="n">
+        <v>509044</v>
       </c>
       <c r="AC29" t="n">
         <v>41.74</v>
       </c>
-      <c r="AD29" t="s">
-        <v>215</v>
+      <c r="AD29" t="n">
+        <v>350053</v>
       </c>
       <c r="AE29" t="n">
         <v>33.75</v>
       </c>
-      <c r="AF29" t="s">
-        <v>216</v>
+      <c r="AF29" t="n">
+        <v>1683538</v>
       </c>
       <c r="AG29" t="n">
         <v>36.42</v>
@@ -4579,76 +3331,76 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3</v>
       </c>
       <c r="C30" t="s"/>
-      <c r="D30" t="s">
-        <v>126</v>
+      <c r="D30" t="n">
+        <v>0.55</v>
       </c>
       <c r="E30" t="s"/>
-      <c r="F30" t="s">
-        <v>117</v>
+      <c r="F30" t="n">
+        <v>0.39</v>
       </c>
       <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>118</v>
+      <c r="H30" t="n">
+        <v>1.84</v>
       </c>
       <c r="I30" t="s"/>
-      <c r="J30" t="s">
-        <v>119</v>
+      <c r="J30" t="n">
+        <v>0.4</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s">
-        <v>120</v>
+      <c r="L30" t="n">
+        <v>0.73</v>
       </c>
       <c r="M30" t="s"/>
-      <c r="N30" t="s">
-        <v>121</v>
+      <c r="N30" t="n">
+        <v>0.58</v>
       </c>
       <c r="O30" t="s"/>
-      <c r="P30" t="s">
-        <v>122</v>
+      <c r="P30" t="n">
+        <v>2.26</v>
       </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s">
-        <v>123</v>
+      <c r="R30" t="n">
+        <v>0.43</v>
       </c>
       <c r="S30" t="s"/>
-      <c r="T30" t="s">
-        <v>116</v>
+      <c r="T30" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="U30" t="s"/>
-      <c r="V30" t="s">
-        <v>124</v>
+      <c r="V30" t="n">
+        <v>0.48</v>
       </c>
       <c r="W30" t="s"/>
-      <c r="X30" t="s">
-        <v>394</v>
+      <c r="X30" t="n">
+        <v>2.11</v>
       </c>
       <c r="Y30" t="s"/>
-      <c r="Z30" t="s">
-        <v>126</v>
+      <c r="Z30" t="n">
+        <v>0.55</v>
       </c>
       <c r="AA30" t="s"/>
-      <c r="AB30" t="s">
-        <v>127</v>
+      <c r="AB30" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC30" t="s"/>
-      <c r="AD30" t="s">
-        <v>116</v>
+      <c r="AD30" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE30" t="s"/>
-      <c r="AF30" t="s">
-        <v>128</v>
+      <c r="AF30" t="n">
+        <v>2.68</v>
       </c>
       <c r="AG30" t="s"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>431</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -4672,8 +3424,8 @@
       <c r="U31" t="s"/>
       <c r="V31" t="s"/>
       <c r="W31" t="s"/>
-      <c r="X31" t="s">
-        <v>432</v>
+      <c r="X31" t="n">
+        <v>-474</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.01</v>
@@ -4684,8 +3436,8 @@
       <c r="AC31" t="s"/>
       <c r="AD31" t="s"/>
       <c r="AE31" t="s"/>
-      <c r="AF31" t="s">
-        <v>433</v>
+      <c r="AF31" t="n">
+        <v>816</v>
       </c>
       <c r="AG31" t="n">
         <v>0.02</v>
@@ -4693,52 +3445,52 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" t="s">
-        <v>435</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>413</v>
       </c>
       <c r="C32" t="n">
         <v>0.03</v>
       </c>
-      <c r="D32" t="s">
-        <v>436</v>
+      <c r="D32" t="n">
+        <v>-4270</v>
       </c>
       <c r="E32" t="n">
         <v>-0.35</v>
       </c>
-      <c r="F32" t="s">
-        <v>437</v>
+      <c r="F32" t="n">
+        <v>5252</v>
       </c>
       <c r="G32" t="n">
         <v>0.41</v>
       </c>
-      <c r="H32" t="s">
-        <v>438</v>
+      <c r="H32" t="n">
+        <v>4334</v>
       </c>
       <c r="I32" t="n">
         <v>0.08</v>
       </c>
-      <c r="J32" t="s">
-        <v>439</v>
+      <c r="J32" t="n">
+        <v>174</v>
       </c>
       <c r="K32" t="n">
         <v>0.01</v>
       </c>
-      <c r="L32" t="s">
-        <v>440</v>
+      <c r="L32" t="n">
+        <v>-60</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>441</v>
+      <c r="N32" t="n">
+        <v>38</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>132</v>
+      <c r="P32" t="n">
+        <v>-872</v>
       </c>
       <c r="Q32" t="n">
         <v>-0.01</v>
@@ -4762,7 +3514,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>442</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
@@ -4780,26 +3532,26 @@
       <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s">
-        <v>113</v>
+      <c r="R33" t="n">
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="s">
-        <v>113</v>
+      <c r="T33" t="n">
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="s">
-        <v>113</v>
+      <c r="V33" t="n">
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
-      <c r="X33" t="s">
-        <v>113</v>
+      <c r="X33" t="n">
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4815,100 +3567,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" t="s">
-        <v>444</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1179</v>
       </c>
       <c r="C34" t="n">
         <v>0.09</v>
       </c>
-      <c r="D34" t="s">
-        <v>445</v>
+      <c r="D34" t="n">
+        <v>1759</v>
       </c>
       <c r="E34" t="n">
         <v>0.14</v>
       </c>
-      <c r="F34" t="s">
-        <v>446</v>
+      <c r="F34" t="n">
+        <v>1950</v>
       </c>
       <c r="G34" t="n">
         <v>0.15</v>
       </c>
-      <c r="H34" t="s">
-        <v>447</v>
+      <c r="H34" t="n">
+        <v>6823</v>
       </c>
       <c r="I34" t="n">
         <v>0.13</v>
       </c>
-      <c r="J34" t="s">
-        <v>448</v>
+      <c r="J34" t="n">
+        <v>2320</v>
       </c>
       <c r="K34" t="n">
         <v>0.17</v>
       </c>
-      <c r="L34" t="s">
-        <v>449</v>
+      <c r="L34" t="n">
+        <v>2356</v>
       </c>
       <c r="M34" t="n">
         <v>0.16</v>
       </c>
-      <c r="N34" t="s">
-        <v>450</v>
+      <c r="N34" t="n">
+        <v>2632</v>
       </c>
       <c r="O34" t="n">
         <v>0.19</v>
       </c>
-      <c r="P34" t="s">
-        <v>451</v>
+      <c r="P34" t="n">
+        <v>10142</v>
       </c>
       <c r="Q34" t="n">
         <v>0.17</v>
       </c>
-      <c r="R34" t="s">
-        <v>452</v>
+      <c r="R34" t="n">
+        <v>3267</v>
       </c>
       <c r="S34" t="n">
         <v>0.25</v>
       </c>
-      <c r="T34" t="s">
-        <v>453</v>
+      <c r="T34" t="n">
+        <v>3412</v>
       </c>
       <c r="U34" t="n">
         <v>0.28</v>
       </c>
-      <c r="V34" t="s">
-        <v>454</v>
+      <c r="V34" t="n">
+        <v>3779</v>
       </c>
       <c r="W34" t="n">
         <v>0.31</v>
       </c>
-      <c r="X34" t="s">
-        <v>455</v>
+      <c r="X34" t="n">
+        <v>14594</v>
       </c>
       <c r="Y34" t="n">
         <v>0.28</v>
       </c>
-      <c r="Z34" t="s">
-        <v>456</v>
+      <c r="Z34" t="n">
+        <v>4186</v>
       </c>
       <c r="AA34" t="n">
         <v>0.38</v>
       </c>
-      <c r="AB34" t="s">
-        <v>457</v>
+      <c r="AB34" t="n">
+        <v>4357</v>
       </c>
       <c r="AC34" t="n">
         <v>0.36</v>
       </c>
-      <c r="AD34" t="s">
-        <v>458</v>
+      <c r="AD34" t="n">
+        <v>4100</v>
       </c>
       <c r="AE34" t="n">
         <v>0.4</v>
       </c>
-      <c r="AF34" t="s">
-        <v>459</v>
+      <c r="AF34" t="n">
+        <v>16732</v>
       </c>
       <c r="AG34" t="n">
         <v>0.36</v>
@@ -4916,100 +3668,100 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B35" t="s">
-        <v>461</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2268</v>
       </c>
       <c r="C35" t="n">
         <v>0.18</v>
       </c>
-      <c r="D35" t="s">
-        <v>462</v>
+      <c r="D35" t="n">
+        <v>1586</v>
       </c>
       <c r="E35" t="n">
         <v>0.13</v>
       </c>
-      <c r="F35" t="s">
-        <v>463</v>
+      <c r="F35" t="n">
+        <v>293</v>
       </c>
       <c r="G35" t="n">
         <v>0.02</v>
       </c>
-      <c r="H35" t="s">
-        <v>464</v>
+      <c r="H35" t="n">
+        <v>5858</v>
       </c>
       <c r="I35" t="n">
         <v>0.11</v>
       </c>
-      <c r="J35" t="s">
-        <v>465</v>
+      <c r="J35" t="n">
+        <v>1168</v>
       </c>
       <c r="K35" t="n">
         <v>0.08</v>
       </c>
-      <c r="L35" t="s">
-        <v>466</v>
+      <c r="L35" t="n">
+        <v>-2943</v>
       </c>
       <c r="M35" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N35" t="s">
-        <v>467</v>
+      <c r="N35" t="n">
+        <v>-269</v>
       </c>
       <c r="O35" t="n">
         <v>-0.02</v>
       </c>
-      <c r="P35" t="s">
-        <v>468</v>
+      <c r="P35" t="n">
+        <v>-8127</v>
       </c>
       <c r="Q35" t="n">
         <v>-0.14</v>
       </c>
-      <c r="R35" t="s">
-        <v>469</v>
+      <c r="R35" t="n">
+        <v>-1468</v>
       </c>
       <c r="S35" t="n">
         <v>-0.11</v>
       </c>
-      <c r="T35" t="s">
-        <v>470</v>
+      <c r="T35" t="n">
+        <v>-2851</v>
       </c>
       <c r="U35" t="n">
         <v>-0.23</v>
       </c>
-      <c r="V35" t="s">
-        <v>471</v>
+      <c r="V35" t="n">
+        <v>-2558</v>
       </c>
       <c r="W35" t="n">
         <v>-0.21</v>
       </c>
-      <c r="X35" t="s">
-        <v>472</v>
+      <c r="X35" t="n">
+        <v>-9623</v>
       </c>
       <c r="Y35" t="n">
         <v>-0.19</v>
       </c>
-      <c r="Z35" t="s">
-        <v>473</v>
+      <c r="Z35" t="n">
+        <v>-2306</v>
       </c>
       <c r="AA35" t="n">
         <v>-0.21</v>
       </c>
-      <c r="AB35" t="s">
-        <v>474</v>
+      <c r="AB35" t="n">
+        <v>-3307</v>
       </c>
       <c r="AC35" t="n">
         <v>-0.27</v>
       </c>
-      <c r="AD35" t="s">
-        <v>475</v>
+      <c r="AD35" t="n">
+        <v>-5969</v>
       </c>
       <c r="AE35" t="n">
         <v>-0.58</v>
       </c>
-      <c r="AF35" t="s">
-        <v>476</v>
+      <c r="AF35" t="n">
+        <v>-18260</v>
       </c>
       <c r="AG35" t="n">
         <v>-0.4</v>
@@ -5017,100 +3769,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B36" t="s">
-        <v>478</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2269</v>
       </c>
       <c r="C36" t="n">
         <v>0.18</v>
       </c>
-      <c r="D36" t="s">
-        <v>479</v>
+      <c r="D36" t="n">
+        <v>1585</v>
       </c>
       <c r="E36" t="n">
         <v>0.13</v>
       </c>
-      <c r="F36" t="s">
-        <v>463</v>
+      <c r="F36" t="n">
+        <v>293</v>
       </c>
       <c r="G36" t="n">
         <v>0.02</v>
       </c>
-      <c r="H36" t="s">
-        <v>464</v>
+      <c r="H36" t="n">
+        <v>5858</v>
       </c>
       <c r="I36" t="n">
         <v>0.11</v>
       </c>
-      <c r="J36" t="s">
-        <v>465</v>
+      <c r="J36" t="n">
+        <v>1168</v>
       </c>
       <c r="K36" t="n">
         <v>0.08</v>
       </c>
-      <c r="L36" t="s">
-        <v>466</v>
+      <c r="L36" t="n">
+        <v>-2943</v>
       </c>
       <c r="M36" t="n">
         <v>-0.2</v>
       </c>
-      <c r="N36" t="s">
-        <v>467</v>
+      <c r="N36" t="n">
+        <v>-269</v>
       </c>
       <c r="O36" t="n">
         <v>-0.02</v>
       </c>
-      <c r="P36" t="s">
-        <v>480</v>
+      <c r="P36" t="n">
+        <v>-8376</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.14</v>
       </c>
-      <c r="R36" t="s">
-        <v>469</v>
+      <c r="R36" t="n">
+        <v>-1468</v>
       </c>
       <c r="S36" t="n">
         <v>-0.11</v>
       </c>
-      <c r="T36" t="s">
-        <v>470</v>
+      <c r="T36" t="n">
+        <v>-2851</v>
       </c>
       <c r="U36" t="n">
         <v>-0.23</v>
       </c>
-      <c r="V36" t="s">
-        <v>471</v>
+      <c r="V36" t="n">
+        <v>-2558</v>
       </c>
       <c r="W36" t="n">
         <v>-0.21</v>
       </c>
-      <c r="X36" t="s">
-        <v>481</v>
+      <c r="X36" t="n">
+        <v>-9957</v>
       </c>
       <c r="Y36" t="n">
         <v>-0.19</v>
       </c>
-      <c r="Z36" t="s">
-        <v>473</v>
+      <c r="Z36" t="n">
+        <v>-2306</v>
       </c>
       <c r="AA36" t="n">
         <v>-0.21</v>
       </c>
-      <c r="AB36" t="s">
-        <v>474</v>
+      <c r="AB36" t="n">
+        <v>-3307</v>
       </c>
       <c r="AC36" t="n">
         <v>-0.27</v>
       </c>
-      <c r="AD36" t="s">
-        <v>475</v>
+      <c r="AD36" t="n">
+        <v>-5969</v>
       </c>
       <c r="AE36" t="n">
         <v>-0.58</v>
       </c>
-      <c r="AF36" t="s">
-        <v>482</v>
+      <c r="AF36" t="n">
+        <v>-18090</v>
       </c>
       <c r="AG36" t="n">
         <v>-0.39</v>
